--- a/data/Coding - Norms Paper.xlsx
+++ b/data/Coding - Norms Paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\norms meta-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462262F-74AB-4C36-A0FF-CF7DFDBD4F50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C424C-9E65-40E4-BD5C-429BE34BA44B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SN Only" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="592">
   <si>
     <t>Folder</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t xml:space="preserve">ns </t>
+  </si>
+  <si>
+    <t>&gt; .10</t>
   </si>
   <si>
     <t>A comprehensive action determination model: Toward a broader understanding of ecological behaviour using the example of travel mode choice</t>
@@ -1211,9 +1214,15 @@
     <t>Car Transport</t>
   </si>
   <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
     <t>Public Transport</t>
   </si>
   <si>
+    <t>&lt;0.05</t>
+  </si>
+  <si>
     <t>Self-Other Relations in Biodiversity Conservation in the Community: Representational Processes and Adjustment to New Actions</t>
   </si>
   <si>
@@ -1721,12 +1730,6 @@
     <t xml:space="preserve">ATT, SN, PBC, </t>
   </si>
   <si>
-    <t>Purchasing sustainably food</t>
-  </si>
-  <si>
-    <t>Purchasing sustainably sourced food</t>
-  </si>
-  <si>
     <t>Emotions, habits and rational choices in ecological behaviours:The case of recycling and use of public transportation</t>
   </si>
   <si>
@@ -1776,6 +1779,9 @@
   </si>
   <si>
     <t>Personal</t>
+  </si>
+  <si>
+    <t>&lt;.075</t>
   </si>
   <si>
     <t>Notes</t>
@@ -1888,7 +1894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1975,11 +1981,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF231F20"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2225,7 +2226,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2254,6 +2254,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2540,11 +2541,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI903"/>
+  <dimension ref="A1:AI902"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2608,10 +2609,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -2646,7 +2647,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
@@ -2710,7 +2711,7 @@
         <v>63</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H3" s="13">
         <v>382</v>
@@ -2722,7 +2723,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L3" s="13">
         <v>0.03</v>
@@ -2760,7 +2761,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="46"/>
@@ -2771,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L4" s="13">
         <v>-0.01</v>
@@ -2879,7 +2880,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L6" s="13">
         <v>0.52</v>
@@ -2975,7 +2976,7 @@
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L8" s="13">
         <v>0.45</v>
@@ -3013,7 +3014,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="46" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
@@ -3062,7 +3063,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="46" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="46"/>
@@ -3071,7 +3072,7 @@
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L10" s="13">
         <v>0.38</v>
@@ -3107,20 +3108,20 @@
         <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15">
         <v>2010</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H11" s="13">
         <v>428</v>
@@ -3129,10 +3130,10 @@
         <v>60</v>
       </c>
       <c r="J11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="L11" s="13">
         <v>0.39</v>
@@ -3168,29 +3169,29 @@
         <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15">
         <v>2001</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="13">
         <v>311</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13">
@@ -3227,20 +3228,20 @@
         <v>24</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15">
         <v>2015</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H13" s="13">
         <v>655</v>
@@ -3249,10 +3250,10 @@
         <v>60</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L13" s="13">
         <v>-0.17</v>
@@ -3289,9 +3290,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="46" t="s">
-        <v>233</v>
-      </c>
+      <c r="F14" s="46"/>
       <c r="G14" s="13"/>
       <c r="H14" s="46"/>
       <c r="I14" s="46" t="s">
@@ -3299,7 +3298,7 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" s="13">
         <v>-0.01</v>
@@ -3335,20 +3334,20 @@
         <v>24</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15">
         <v>2015</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H15" s="13">
         <v>2116</v>
@@ -3360,7 +3359,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L15" s="13">
         <v>0.28999999999999998</v>
@@ -3396,20 +3395,20 @@
         <v>24</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15">
         <v>2016</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H16" s="13">
         <v>483</v>
@@ -3421,7 +3420,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L16" s="13">
         <v>0.31</v>
@@ -3457,20 +3456,20 @@
         <v>24</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <v>2016</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H17" s="13">
         <v>1076</v>
@@ -3516,32 +3515,32 @@
         <v>24</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="15">
         <v>2010</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H18" s="13">
         <v>311</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L18" s="85">
         <v>0.21</v>
@@ -3554,7 +3553,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -3586,11 +3585,11 @@
       <c r="G19" s="13"/>
       <c r="H19" s="46"/>
       <c r="I19" s="46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L19" s="85">
         <v>0.38</v>
@@ -3603,7 +3602,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -3628,32 +3627,32 @@
         <v>24</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="15">
         <v>2016</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H20" s="13">
         <v>214</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L20" s="13">
         <v>0.47</v>
@@ -3689,38 +3688,38 @@
         <v>24</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15">
         <v>2018</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H21" s="13">
         <v>175</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>136</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L21" s="13">
         <v>0.12</v>
       </c>
       <c r="M21" s="117" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N21" s="42"/>
       <c r="O21" s="87"/>
@@ -3750,32 +3749,32 @@
         <v>24</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15">
         <v>2018</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H22" s="13">
         <v>543</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L22" s="13">
         <v>0.1</v>
@@ -3815,32 +3814,32 @@
         <v>24</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="47">
         <v>2013</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H23" s="45">
         <v>307</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L23" s="45">
         <v>0.41</v>
@@ -3878,7 +3877,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="15">
@@ -3891,7 +3890,7 @@
         <v>63</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H24" s="13">
         <v>620</v>
@@ -3900,10 +3899,10 @@
         <v>60</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L24" s="13">
         <v>0.23</v>
@@ -3939,20 +3938,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15">
         <v>2013</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>194</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H25" s="13">
         <v>449</v>
@@ -3964,7 +3963,7 @@
         <v>29</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L25" s="13">
         <v>0.38</v>
@@ -3977,7 +3976,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="58" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -4011,7 +4010,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L26" s="13">
         <v>0.31</v>
@@ -4024,7 +4023,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -4071,7 +4070,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
@@ -4096,20 +4095,20 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15">
         <v>2013</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H28" s="13">
         <v>411</v>
@@ -4118,10 +4117,10 @@
         <v>60</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K28" s="85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L28" s="13">
         <v>0.43</v>
@@ -4158,17 +4157,15 @@
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="46" t="s">
-        <v>63</v>
-      </c>
+      <c r="F29" s="46"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K29" s="85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L29" s="13">
         <v>0.48</v>
@@ -4204,20 +4201,20 @@
         <v>24</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15">
         <v>2016</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H30" s="13">
         <v>521</v>
@@ -4226,10 +4223,10 @@
         <v>60</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L30" s="13">
         <v>0.05</v>
@@ -4265,14 +4262,14 @@
         <v>24</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15">
         <v>2014</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>63</v>
@@ -4287,10 +4284,10 @@
         <v>126</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L31" s="13">
         <v>0.36</v>
@@ -4326,20 +4323,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15">
         <v>2015</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H32" s="13">
         <v>482</v>
@@ -4348,10 +4345,10 @@
         <v>60</v>
       </c>
       <c r="J32" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="L32" s="13">
         <v>0.39</v>
@@ -4387,32 +4384,32 @@
         <v>24</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15">
         <v>2002</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H33" s="13">
         <v>550</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L33" s="13">
         <v>0.17</v>
@@ -4448,20 +4445,20 @@
         <v>24</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="15">
         <v>1992</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H34" s="13">
         <v>361</v>
@@ -4470,10 +4467,10 @@
         <v>44</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L34" s="13">
         <v>0.18</v>
@@ -4509,32 +4506,32 @@
         <v>24</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15">
         <v>2008</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H35" s="13">
         <v>456</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" s="13">
         <v>0.05</v>
@@ -4571,15 +4568,13 @@
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="46" t="s">
-        <v>63</v>
-      </c>
+      <c r="F36" s="46"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L36" s="13">
         <v>0.12</v>
@@ -4615,32 +4610,32 @@
         <v>24</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="15">
         <v>2012</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H37" s="15">
         <v>1054</v>
       </c>
       <c r="I37" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" s="42" t="s">
         <v>341</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="K37" s="42" t="s">
-        <v>340</v>
       </c>
       <c r="L37" s="13">
         <v>0.37</v>
@@ -4676,14 +4671,14 @@
         <v>24</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15">
         <v>2012</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>72</v>
@@ -4737,32 +4732,32 @@
         <v>24</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="15">
         <v>2018</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H39" s="13">
         <v>1009</v>
       </c>
       <c r="I39" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="L39" s="13">
         <v>0.2</v>
@@ -4894,32 +4889,32 @@
         <v>24</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="15">
         <v>2017</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F42" s="46" t="s">
         <v>38</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H42" s="13">
         <v>79</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L42" s="13">
         <v>0.39</v>
@@ -4964,7 +4959,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="42" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L43" s="13">
         <v>0.28000000000000003</v>
@@ -5011,7 +5006,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="42" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L44" s="13">
         <v>-0.06</v>
@@ -5056,7 +5051,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="42" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L45" s="13">
         <v>0.13</v>
@@ -5103,7 +5098,7 @@
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="42" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L46" s="13">
         <v>0.09</v>
@@ -5148,7 +5143,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="42" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L47" s="13">
         <v>-0.05</v>
@@ -5184,20 +5179,20 @@
         <v>24</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="15">
         <v>2017</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>63</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H48" s="13">
         <v>152</v>
@@ -5206,10 +5201,10 @@
         <v>92</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K48" s="42" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L48" s="13">
         <v>0.15</v>
@@ -5245,20 +5240,20 @@
         <v>24</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="15">
         <v>2016</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F49" s="42" t="s">
         <v>63</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H49" s="15">
         <v>406</v>
@@ -5267,10 +5262,10 @@
         <v>92</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K49" s="42" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L49" s="13">
         <v>7.0000000000000007E-2</v>
@@ -5306,32 +5301,32 @@
         <v>24</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="15">
         <v>2010</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F50" s="42" t="s">
         <v>38</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H50" s="13">
         <v>226</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L50" s="13">
         <v>0.14000000000000001</v>
@@ -5344,7 +5339,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -5366,35 +5361,35 @@
     </row>
     <row r="51" spans="1:35" ht="12.75">
       <c r="A51" s="59" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="34">
         <v>2010</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F51" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H51" s="34">
         <v>138</v>
       </c>
-      <c r="I51" s="116" t="s">
-        <v>584</v>
+      <c r="I51" s="115" t="s">
+        <v>586</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L51" s="36">
         <v>7.0000000000000007E-2</v>
@@ -5407,7 +5402,7 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -5441,7 +5436,7 @@
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L52" s="36">
         <v>0.14000000000000001</v>
@@ -5454,7 +5449,7 @@
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
@@ -5488,7 +5483,7 @@
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="35" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L53" s="36">
         <v>0.04</v>
@@ -5501,7 +5496,7 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
@@ -5523,23 +5518,23 @@
     </row>
     <row r="54" spans="1:35" ht="12.75">
       <c r="A54" s="59" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="34">
         <v>2017</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>63</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H54" s="34">
         <f>123+130</f>
@@ -5549,16 +5544,16 @@
         <v>92</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K54" s="61" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L54" s="35">
         <v>0.18</v>
       </c>
-      <c r="M54" s="19" t="s">
-        <v>589</v>
+      <c r="M54" s="117" t="s">
+        <v>591</v>
       </c>
       <c r="N54" s="62"/>
       <c r="O54" s="93"/>
@@ -5588,32 +5583,32 @@
         <v>107</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="34">
         <v>2014</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F55" s="35" t="s">
         <v>111</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H55" s="34">
         <v>276</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="J55" s="29" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L55" s="34">
         <v>0.49</v>
@@ -5649,20 +5644,20 @@
         <v>107</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="34">
         <v>2016</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F56" s="35" t="s">
         <v>111</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H56" s="34">
         <v>354</v>
@@ -5671,10 +5666,10 @@
         <v>92</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L56" s="34">
         <v>0.13</v>
@@ -5729,13 +5724,13 @@
         <v>352</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L57" s="25">
         <v>0.45</v>
@@ -5780,7 +5775,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="42" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L58" s="25">
         <v>0.19</v>
@@ -5825,7 +5820,7 @@
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="25" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L59" s="25">
         <v>0.34</v>
@@ -5861,19 +5856,19 @@
         <v>107</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D60" s="25">
         <v>2013</v>
       </c>
       <c r="E60" s="65" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F60" s="33" t="s">
         <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H60" s="25">
         <v>223</v>
@@ -5885,7 +5880,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L60" s="25">
         <v>0.01</v>
@@ -5913,7 +5908,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="35" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L61" s="25">
         <v>8.0000000000000002E-3</v>
@@ -5953,14 +5948,14 @@
       <c r="D62" s="11"/>
       <c r="E62" s="66"/>
       <c r="F62" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="25" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L62" s="67">
         <v>-1E-3</v>
@@ -5998,32 +5993,32 @@
         <v>107</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="25">
         <v>2015</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H63" s="25">
         <v>236</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J63" s="35" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L63" s="25">
         <v>0.24</v>
@@ -6061,32 +6056,32 @@
         <v>107</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="34">
         <v>2015</v>
       </c>
       <c r="E64" s="69" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F64" s="35" t="s">
         <v>111</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H64" s="34">
         <v>174</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J64" s="29" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K64" s="29" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L64" s="41">
         <v>0.21</v>
@@ -6122,32 +6117,32 @@
         <v>107</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="34">
         <v>2018</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H65" s="34">
         <v>600</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>200</v>
       </c>
       <c r="K65" s="29" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L65" s="34">
         <v>0.03</v>
@@ -6183,32 +6178,32 @@
         <v>107</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C66" s="70"/>
       <c r="D66" s="35">
         <v>2015</v>
       </c>
       <c r="E66" s="71" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H66" s="34">
         <v>73</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>200</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L66" s="41">
         <v>0.03</v>
@@ -6248,14 +6243,14 @@
       <c r="D67" s="25"/>
       <c r="E67" s="65"/>
       <c r="F67" s="64" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="25"/>
       <c r="I67" s="11"/>
       <c r="J67" s="35"/>
       <c r="K67" s="25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L67" s="41">
         <v>-0.01</v>
@@ -6293,32 +6288,32 @@
         <v>107</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="25">
         <v>2016</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H68" s="25">
         <v>197</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K68" s="25" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L68" s="25">
         <v>0.16</v>
@@ -6354,20 +6349,20 @@
         <v>107</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="25">
         <v>2005</v>
       </c>
       <c r="E69" s="65" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H69" s="25">
         <v>175</v>
@@ -6376,10 +6371,10 @@
         <v>44</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K69" s="25" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L69" s="55">
         <v>0.18</v>
@@ -6417,32 +6412,32 @@
         <v>107</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="25">
         <v>2018</v>
       </c>
       <c r="E70" s="65" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F70" s="64" t="s">
         <v>194</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H70" s="25">
         <v>487</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K70" s="33" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L70" s="25">
         <v>0.11</v>
@@ -6478,20 +6473,20 @@
         <v>107</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="25">
         <v>2017</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>38</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H71" s="25">
         <v>266</v>
@@ -6500,16 +6495,16 @@
         <v>92</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L71" s="25">
         <v>0.09</v>
       </c>
       <c r="M71" s="25" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N71" s="25">
         <v>0.14399999999999999</v>
@@ -6543,38 +6538,38 @@
         <v>107</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="25">
         <v>2018</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>111</v>
+        <v>496</v>
+      </c>
+      <c r="F72" s="116" t="s">
+        <v>63</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H72" s="25">
         <v>169</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L72" s="25">
         <v>-0.02</v>
       </c>
       <c r="M72" s="25" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N72" s="23">
         <v>0.83899999999999997</v>
@@ -6606,32 +6601,32 @@
         <v>107</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="25">
         <v>2016</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H73" s="25">
         <v>1004</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L73" s="25">
         <v>0.42</v>
@@ -6669,20 +6664,20 @@
         <v>107</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="25">
         <v>2016</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>63</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H74" s="72">
         <v>2000</v>
@@ -6691,10 +6686,10 @@
         <v>92</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L74" s="25">
         <v>0.13</v>
@@ -6730,20 +6725,20 @@
         <v>107</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="25">
         <v>2012</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H75" s="25">
         <v>180</v>
@@ -6755,7 +6750,7 @@
         <v>200</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L75" s="25">
         <v>0.04</v>
@@ -6791,20 +6786,20 @@
         <v>107</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="25">
         <v>2014</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H76" s="25">
         <v>487</v>
@@ -6813,10 +6808,10 @@
         <v>176</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K76" s="42" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L76" s="25">
         <v>0.25</v>
@@ -6854,14 +6849,14 @@
         <v>107</v>
       </c>
       <c r="B77" s="73" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C77" s="74"/>
       <c r="D77" s="73">
         <v>2016</v>
       </c>
       <c r="E77" s="65" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F77" s="73" t="s">
         <v>111</v>
@@ -6876,7 +6871,7 @@
         <v>92</v>
       </c>
       <c r="J77" s="73" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K77" s="73" t="s">
         <v>91</v>
@@ -6917,32 +6912,32 @@
         <v>107</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C78" s="77"/>
       <c r="D78" s="76">
         <v>2018</v>
       </c>
       <c r="E78" s="78" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F78" s="76" t="s">
         <v>38</v>
       </c>
       <c r="G78" s="76" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H78" s="76">
         <v>437</v>
       </c>
       <c r="I78" s="76" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="J78" s="76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K78" s="76" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L78" s="76">
         <v>-0.01</v>
@@ -6982,32 +6977,32 @@
         <v>107</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C79" s="25"/>
       <c r="D79" s="25">
         <v>2012</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>38</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H79" s="25">
         <v>1634</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L79" s="25">
         <v>0.18</v>
@@ -7043,20 +7038,20 @@
         <v>107</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="25">
         <v>2004</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H80" s="25">
         <v>230</v>
@@ -7065,10 +7060,10 @@
         <v>92</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L80" s="25">
         <v>0.16</v>
@@ -7079,7 +7074,7 @@
       <c r="P80" s="11"/>
       <c r="Q80" s="25"/>
       <c r="R80" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
@@ -7104,32 +7099,32 @@
         <v>107</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C81" s="74"/>
       <c r="D81" s="73">
         <v>2006</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G81" s="73" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H81" s="73">
         <v>130</v>
       </c>
       <c r="I81" s="73" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J81" s="73" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K81" s="73" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L81" s="73">
         <v>0.14000000000000001</v>
@@ -7168,19 +7163,19 @@
       <c r="E82" s="65"/>
       <c r="F82" s="73"/>
       <c r="G82" s="73" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H82" s="73">
         <v>193</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J82" s="73" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K82" s="73" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L82" s="25">
         <v>0.15</v>
@@ -7216,20 +7211,20 @@
         <v>107</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="25">
         <v>2004</v>
       </c>
       <c r="E83" s="65" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H83" s="25">
         <v>246</v>
@@ -7238,10 +7233,10 @@
         <v>74</v>
       </c>
       <c r="J83" s="25" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K83" s="25" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L83" s="25">
         <v>0.03</v>
@@ -7277,32 +7272,32 @@
         <v>107</v>
       </c>
       <c r="B84" s="80" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C84" s="81"/>
       <c r="D84" s="25">
         <v>2011</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H84" s="25">
         <v>79</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L84" s="25">
         <v>0.22</v>
@@ -7338,14 +7333,14 @@
         <v>107</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="25">
         <v>2012</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>111</v>
@@ -7360,7 +7355,7 @@
         <v>92</v>
       </c>
       <c r="J85" s="25" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K85" s="25" t="s">
         <v>91</v>
@@ -7399,14 +7394,14 @@
         <v>107</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C86" s="25"/>
       <c r="D86" s="25">
         <v>2015</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>111</v>
@@ -7421,7 +7416,7 @@
         <v>92</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K86" s="25" t="s">
         <v>207</v>
@@ -7455,46 +7450,46 @@
       <c r="AH86" s="11"/>
       <c r="AI86" s="11"/>
     </row>
-    <row r="87" spans="1:35" ht="13.5">
+    <row r="87" spans="1:35" ht="12.75">
       <c r="A87" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>122</v>
+        <v>557</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="25">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>63</v>
+        <v>558</v>
+      </c>
+      <c r="F87" s="64" t="s">
+        <v>194</v>
       </c>
       <c r="G87" s="25" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H87" s="25">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="I87" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J87" s="33" t="s">
-        <v>200</v>
+        <v>560</v>
+      </c>
+      <c r="J87" s="25" t="s">
+        <v>561</v>
       </c>
       <c r="K87" s="25" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="L87" s="25">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="M87" s="25" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N87" s="25"/>
-      <c r="O87" s="100"/>
+      <c r="O87" s="87"/>
       <c r="P87" s="23"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
@@ -7516,49 +7511,51 @@
       <c r="AH87" s="11"/>
       <c r="AI87" s="11"/>
     </row>
-    <row r="88" spans="1:35" ht="12.75">
-      <c r="A88" s="24" t="s">
+    <row r="88" spans="1:35" ht="13.5">
+      <c r="A88" s="63" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="25">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>557</v>
-      </c>
-      <c r="F88" s="64" t="s">
-        <v>194</v>
+        <v>563</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="H88" s="25">
-        <v>180</v>
+        <v>564</v>
+      </c>
+      <c r="H88" s="23">
+        <v>523</v>
       </c>
       <c r="I88" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="J88" s="25" t="s">
-        <v>560</v>
+        <v>44</v>
+      </c>
+      <c r="J88" s="51" t="s">
+        <v>565</v>
       </c>
       <c r="K88" s="25" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L88" s="25">
-        <v>0.08</v>
-      </c>
-      <c r="M88" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N88" s="25"/>
-      <c r="O88" s="87"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="M88" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N88" s="35"/>
+      <c r="O88" s="88"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
@@ -7577,51 +7574,25 @@
       <c r="AH88" s="11"/>
       <c r="AI88" s="11"/>
     </row>
-    <row r="89" spans="1:35" ht="13.5">
-      <c r="A89" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E89" s="65" t="s">
-        <v>562</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="H89" s="23">
-        <v>523</v>
-      </c>
-      <c r="I89" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J89" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="K89" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="L89" s="25">
-        <v>4.75</v>
-      </c>
-      <c r="M89" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N89" s="35"/>
-      <c r="O89" s="88"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33" t="s">
-        <v>286</v>
-      </c>
+    <row r="89" spans="1:35" ht="12.75">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="87"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
@@ -7720,7 +7691,9 @@
       <c r="C92" s="13"/>
       <c r="D92" s="15"/>
       <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
+      <c r="F92" s="13" t="s">
+        <v>366</v>
+      </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
@@ -7757,9 +7730,7 @@
       <c r="C93" s="13"/>
       <c r="D93" s="15"/>
       <c r="E93" s="13"/>
-      <c r="F93" s="13" t="s">
-        <v>365</v>
-      </c>
+      <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
@@ -7791,30 +7762,30 @@
       <c r="AI93" s="11"/>
     </row>
     <row r="94" spans="1:35" ht="12.75">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
       <c r="O94" s="87"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="87"/>
+      <c r="R94" s="87"/>
+      <c r="S94" s="87"/>
+      <c r="T94" s="87"/>
+      <c r="U94" s="87"/>
+      <c r="V94" s="87"/>
+      <c r="W94" s="87"/>
+      <c r="X94" s="87"/>
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
@@ -7828,20 +7799,20 @@
       <c r="AI94" s="11"/>
     </row>
     <row r="95" spans="1:35" ht="12.75">
-      <c r="A95" s="85"/>
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="85"/>
-      <c r="L95" s="85"/>
-      <c r="M95" s="85"/>
-      <c r="N95" s="85"/>
+      <c r="A95" s="88"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="88"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="88"/>
+      <c r="M95" s="87"/>
+      <c r="N95" s="87"/>
       <c r="O95" s="87"/>
       <c r="P95" s="87"/>
       <c r="Q95" s="87"/>
@@ -7852,17 +7823,17 @@
       <c r="V95" s="87"/>
       <c r="W95" s="87"/>
       <c r="X95" s="87"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-      <c r="AA95" s="11"/>
-      <c r="AB95" s="11"/>
-      <c r="AC95" s="11"/>
-      <c r="AD95" s="11"/>
-      <c r="AE95" s="11"/>
-      <c r="AF95" s="11"/>
-      <c r="AG95" s="11"/>
-      <c r="AH95" s="11"/>
-      <c r="AI95" s="11"/>
+      <c r="Y95" s="82"/>
+      <c r="Z95" s="82"/>
+      <c r="AA95" s="82"/>
+      <c r="AB95" s="82"/>
+      <c r="AC95" s="82"/>
+      <c r="AD95" s="82"/>
+      <c r="AE95" s="82"/>
+      <c r="AF95" s="82"/>
+      <c r="AG95" s="82"/>
+      <c r="AH95" s="82"/>
+      <c r="AI95" s="82"/>
     </row>
     <row r="96" spans="1:35" ht="12.75">
       <c r="A96" s="88"/>
@@ -7873,186 +7844,185 @@
       <c r="F96" s="88"/>
       <c r="G96" s="88"/>
       <c r="H96" s="88"/>
-      <c r="I96" s="88"/>
-      <c r="J96" s="88"/>
-      <c r="K96" s="88"/>
-      <c r="L96" s="88"/>
-      <c r="M96" s="87"/>
-      <c r="N96" s="87"/>
-      <c r="O96" s="87"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="87"/>
-      <c r="R96" s="87"/>
-      <c r="S96" s="87"/>
-      <c r="T96" s="87"/>
-      <c r="U96" s="87"/>
-      <c r="V96" s="87"/>
-      <c r="W96" s="87"/>
-      <c r="X96" s="87"/>
-      <c r="Y96" s="82"/>
-      <c r="Z96" s="82"/>
-      <c r="AA96" s="82"/>
-      <c r="AB96" s="82"/>
-      <c r="AC96" s="82"/>
-      <c r="AD96" s="82"/>
-      <c r="AE96" s="82"/>
-      <c r="AF96" s="82"/>
-      <c r="AG96" s="82"/>
-      <c r="AH96" s="82"/>
-      <c r="AI96" s="82"/>
+      <c r="I96" s="89"/>
+      <c r="J96" s="89"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="89"/>
+      <c r="M96" s="89"/>
+      <c r="N96" s="89"/>
+      <c r="O96" s="90"/>
+      <c r="P96" s="90"/>
+      <c r="Q96" s="90"/>
+      <c r="R96" s="90"/>
+      <c r="S96" s="90"/>
+      <c r="T96" s="90"/>
+      <c r="U96" s="90"/>
+      <c r="V96" s="90"/>
+      <c r="W96" s="90"/>
+      <c r="X96" s="90"/>
+      <c r="Y96" s="83"/>
+      <c r="Z96" s="83"/>
+      <c r="AA96" s="83"/>
+      <c r="AB96" s="83"/>
+      <c r="AC96" s="83"/>
+      <c r="AD96" s="83"/>
+      <c r="AE96" s="83"/>
+      <c r="AF96" s="83"/>
+      <c r="AG96" s="83"/>
+      <c r="AH96" s="83"/>
+      <c r="AI96" s="83"/>
     </row>
     <row r="97" spans="1:35" ht="12.75">
       <c r="A97" s="88"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
-      <c r="L97" s="89"/>
-      <c r="M97" s="89"/>
-      <c r="N97" s="89"/>
-      <c r="O97" s="90"/>
-      <c r="P97" s="90"/>
-      <c r="Q97" s="90"/>
-      <c r="R97" s="90"/>
-      <c r="S97" s="90"/>
-      <c r="T97" s="90"/>
-      <c r="U97" s="90"/>
-      <c r="V97" s="90"/>
-      <c r="W97" s="90"/>
-      <c r="X97" s="90"/>
-      <c r="Y97" s="83"/>
-      <c r="Z97" s="83"/>
-      <c r="AA97" s="83"/>
-      <c r="AB97" s="83"/>
-      <c r="AC97" s="83"/>
-      <c r="AD97" s="83"/>
-      <c r="AE97" s="83"/>
-      <c r="AF97" s="83"/>
-      <c r="AG97" s="83"/>
-      <c r="AH97" s="83"/>
-      <c r="AI97" s="83"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="94"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="91"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="93"/>
+      <c r="S97" s="93"/>
+      <c r="T97" s="93"/>
+      <c r="U97" s="93"/>
+      <c r="V97" s="93"/>
+      <c r="W97" s="93"/>
+      <c r="X97" s="93"/>
+      <c r="Y97" s="26"/>
+      <c r="Z97" s="26"/>
+      <c r="AA97" s="26"/>
+      <c r="AB97" s="26"/>
+      <c r="AC97" s="26"/>
+      <c r="AD97" s="26"/>
+      <c r="AE97" s="26"/>
+      <c r="AF97" s="26"/>
+      <c r="AG97" s="26"/>
+      <c r="AH97" s="26"/>
+      <c r="AI97" s="26"/>
     </row>
     <row r="98" spans="1:35" ht="12.75">
-      <c r="A98" s="88"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="91"/>
-      <c r="H98" s="93"/>
-      <c r="I98" s="94"/>
-      <c r="J98" s="93"/>
-      <c r="K98" s="91"/>
-      <c r="L98" s="93"/>
-      <c r="M98" s="93"/>
-      <c r="N98" s="93"/>
-      <c r="O98" s="93"/>
-      <c r="P98" s="93"/>
-      <c r="Q98" s="93"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="M98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="95"/>
+      <c r="Q98" s="95"/>
       <c r="R98" s="93"/>
-      <c r="S98" s="93"/>
-      <c r="T98" s="93"/>
-      <c r="U98" s="93"/>
-      <c r="V98" s="93"/>
-      <c r="W98" s="93"/>
-      <c r="X98" s="93"/>
-      <c r="Y98" s="26"/>
-      <c r="Z98" s="26"/>
-      <c r="AA98" s="26"/>
-      <c r="AB98" s="26"/>
-      <c r="AC98" s="26"/>
-      <c r="AD98" s="26"/>
-      <c r="AE98" s="26"/>
-      <c r="AF98" s="26"/>
-      <c r="AG98" s="26"/>
-      <c r="AH98" s="26"/>
-      <c r="AI98" s="26"/>
-    </row>
-    <row r="99" spans="1:35" ht="12.75">
-      <c r="A99" s="95"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="95"/>
-      <c r="G99" s="95"/>
-      <c r="H99" s="95"/>
-      <c r="I99" s="95"/>
-      <c r="J99" s="95"/>
-      <c r="K99" s="95"/>
-      <c r="L99" s="95"/>
-      <c r="M99" s="95"/>
-      <c r="N99" s="95"/>
-      <c r="O99" s="95"/>
-      <c r="P99" s="95"/>
-      <c r="Q99" s="95"/>
-      <c r="R99" s="93"/>
-      <c r="S99" s="95"/>
-      <c r="T99" s="95"/>
-      <c r="U99" s="95"/>
-      <c r="V99" s="95"/>
-      <c r="W99" s="95"/>
-      <c r="X99" s="95"/>
-      <c r="Y99" s="84"/>
-      <c r="Z99" s="84"/>
-      <c r="AA99" s="84"/>
-      <c r="AB99" s="84"/>
-      <c r="AC99" s="84"/>
-      <c r="AD99" s="84"/>
-      <c r="AE99" s="84"/>
-      <c r="AF99" s="84"/>
-      <c r="AG99" s="84"/>
-      <c r="AH99" s="84"/>
-      <c r="AI99" s="84"/>
-    </row>
-    <row r="100" spans="1:35" ht="15.75" customHeight="1">
-      <c r="A100" s="85"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
-      <c r="M100" s="85"/>
-      <c r="N100" s="85"/>
-      <c r="P100" s="85"/>
-      <c r="Q100" s="85"/>
-      <c r="R100" s="85"/>
-      <c r="S100" s="85"/>
-      <c r="T100" s="85"/>
-      <c r="U100" s="85"/>
-      <c r="V100" s="85"/>
-      <c r="W100" s="85"/>
-      <c r="X100" s="85"/>
+      <c r="S98" s="95"/>
+      <c r="T98" s="95"/>
+      <c r="U98" s="95"/>
+      <c r="V98" s="95"/>
+      <c r="W98" s="95"/>
+      <c r="X98" s="95"/>
+      <c r="Y98" s="84"/>
+      <c r="Z98" s="84"/>
+      <c r="AA98" s="84"/>
+      <c r="AB98" s="84"/>
+      <c r="AC98" s="84"/>
+      <c r="AD98" s="84"/>
+      <c r="AE98" s="84"/>
+      <c r="AF98" s="84"/>
+      <c r="AG98" s="84"/>
+      <c r="AH98" s="84"/>
+      <c r="AI98" s="84"/>
+    </row>
+    <row r="99" spans="1:35" ht="15.75" customHeight="1">
+      <c r="A99" s="85"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="85"/>
+      <c r="P99" s="85"/>
+      <c r="Q99" s="85"/>
+      <c r="R99" s="85"/>
+      <c r="S99" s="85"/>
+      <c r="T99" s="85"/>
+      <c r="U99" s="85"/>
+      <c r="V99" s="85"/>
+      <c r="W99" s="85"/>
+      <c r="X99" s="85"/>
+    </row>
+    <row r="101" spans="1:35" ht="12.75">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="87"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11"/>
+      <c r="X101" s="11"/>
+      <c r="Y101" s="11"/>
+      <c r="Z101" s="11"/>
+      <c r="AA101" s="11"/>
+      <c r="AB101" s="11"/>
+      <c r="AC101" s="11"/>
+      <c r="AD101" s="11"/>
+      <c r="AE101" s="11"/>
+      <c r="AF101" s="11"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
     </row>
     <row r="102" spans="1:35" ht="12.75">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="11"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="J102" s="25"/>
       <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="87"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="88"/>
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11"/>
@@ -8075,97 +8045,82 @@
       <c r="AI102" s="11"/>
     </row>
     <row r="103" spans="1:35" ht="12.75">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="88"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11"/>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11"/>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-      <c r="Y103" s="11"/>
-      <c r="Z103" s="11"/>
-      <c r="AA103" s="11"/>
-      <c r="AB103" s="11"/>
-      <c r="AC103" s="11"/>
-      <c r="AD103" s="11"/>
-      <c r="AE103" s="11"/>
-      <c r="AF103" s="11"/>
-      <c r="AG103" s="11"/>
-      <c r="AH103" s="11"/>
-      <c r="AI103" s="11"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="93"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="26"/>
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="V103" s="26"/>
+      <c r="W103" s="26"/>
+      <c r="X103" s="26"/>
+      <c r="Y103" s="26"/>
+      <c r="Z103" s="26"/>
+      <c r="AA103" s="26"/>
+      <c r="AB103" s="26"/>
+      <c r="AC103" s="26"/>
+      <c r="AD103" s="26"/>
+      <c r="AE103" s="26"/>
+      <c r="AF103" s="26"/>
+      <c r="AG103" s="26"/>
+      <c r="AH103" s="26"/>
+      <c r="AI103" s="26"/>
     </row>
     <row r="104" spans="1:35" ht="12.75">
-      <c r="A104" s="26"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="93"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="26"/>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26"/>
-      <c r="V104" s="26"/>
-      <c r="W104" s="26"/>
-      <c r="X104" s="26"/>
-      <c r="Y104" s="26"/>
-      <c r="Z104" s="26"/>
-      <c r="AA104" s="26"/>
-      <c r="AB104" s="26"/>
-      <c r="AC104" s="26"/>
-      <c r="AD104" s="26"/>
-      <c r="AE104" s="26"/>
-      <c r="AF104" s="26"/>
-      <c r="AG104" s="26"/>
-      <c r="AH104" s="26"/>
-      <c r="AI104" s="26"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="87"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="11"/>
+      <c r="AA104" s="11"/>
+      <c r="AB104" s="11"/>
+      <c r="AC104" s="11"/>
+      <c r="AD104" s="11"/>
+      <c r="AE104" s="11"/>
+      <c r="AF104" s="11"/>
+      <c r="AG104" s="11"/>
+      <c r="AH104" s="11"/>
+      <c r="AI104" s="11"/>
     </row>
     <row r="105" spans="1:35" ht="12.75">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
       <c r="S105" s="11"/>
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
@@ -8184,9 +8139,25 @@
       <c r="AH105" s="11"/>
       <c r="AI105" s="11"/>
     </row>
-    <row r="106" spans="1:35" ht="12.75">
+    <row r="106" spans="1:35" ht="13.5">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="88"/>
+      <c r="P106" s="33"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
       <c r="S106" s="11"/>
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
@@ -8205,25 +8176,10 @@
       <c r="AH106" s="11"/>
       <c r="AI106" s="11"/>
     </row>
-    <row r="107" spans="1:35" ht="13.5">
+    <row r="107" spans="1:35" ht="12.75">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="88"/>
-      <c r="P107" s="33"/>
-      <c r="Q107" s="11"/>
-      <c r="R107" s="11"/>
+      <c r="C107" s="25"/>
       <c r="S107" s="11"/>
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
@@ -8245,7 +8201,6 @@
     <row r="108" spans="1:35" ht="12.75">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
-      <c r="C108" s="25"/>
       <c r="S108" s="11"/>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
@@ -8267,6 +8222,22 @@
     <row r="109" spans="1:35" ht="12.75">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="87"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
       <c r="S109" s="11"/>
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
@@ -37626,43 +37597,6 @@
       <c r="AH902" s="11"/>
       <c r="AI902" s="11"/>
     </row>
-    <row r="903" spans="1:35" ht="12.75">
-      <c r="A903" s="11"/>
-      <c r="B903" s="11"/>
-      <c r="C903" s="11"/>
-      <c r="D903" s="11"/>
-      <c r="E903" s="11"/>
-      <c r="F903" s="11"/>
-      <c r="G903" s="11"/>
-      <c r="H903" s="11"/>
-      <c r="I903" s="11"/>
-      <c r="J903" s="11"/>
-      <c r="K903" s="11"/>
-      <c r="L903" s="11"/>
-      <c r="M903" s="11"/>
-      <c r="N903" s="11"/>
-      <c r="O903" s="87"/>
-      <c r="P903" s="11"/>
-      <c r="Q903" s="11"/>
-      <c r="R903" s="11"/>
-      <c r="S903" s="11"/>
-      <c r="T903" s="11"/>
-      <c r="U903" s="11"/>
-      <c r="V903" s="11"/>
-      <c r="W903" s="11"/>
-      <c r="X903" s="11"/>
-      <c r="Y903" s="11"/>
-      <c r="Z903" s="11"/>
-      <c r="AA903" s="11"/>
-      <c r="AB903" s="11"/>
-      <c r="AC903" s="11"/>
-      <c r="AD903" s="11"/>
-      <c r="AE903" s="11"/>
-      <c r="AF903" s="11"/>
-      <c r="AG903" s="11"/>
-      <c r="AH903" s="11"/>
-      <c r="AI903" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -37681,8 +37615,8 @@
   </sheetPr>
   <dimension ref="A1:AG77"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -37703,7 +37637,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -37731,10 +37665,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -37749,10 +37683,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -37770,50 +37704,50 @@
       <c r="AG1" s="5"/>
     </row>
     <row r="2" spans="1:33" ht="12.75">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="107">
+      <c r="C2" s="100"/>
+      <c r="D2" s="106">
         <v>2011</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="101">
+      <c r="H2" s="100">
         <v>85</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M2" s="101">
+      <c r="L2" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M2" s="100">
         <v>0.16</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -37831,34 +37765,34 @@
       <c r="AG2" s="5"/>
     </row>
     <row r="3" spans="1:33" ht="12.75">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M3" s="108">
+      <c r="L3" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M3" s="107">
         <v>0.23</v>
       </c>
-      <c r="N3" s="109" t="s">
+      <c r="N3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -37876,50 +37810,50 @@
       <c r="AG3" s="5"/>
     </row>
     <row r="4" spans="1:33" ht="12.75">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="107">
+      <c r="C4" s="100"/>
+      <c r="D4" s="106">
         <v>2017</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="100">
         <v>391</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M4" s="101">
+      <c r="L4" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M4" s="100">
         <v>0.4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="110"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -37937,50 +37871,50 @@
       <c r="AG4" s="5"/>
     </row>
     <row r="5" spans="1:33" ht="12.75">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="107">
+      <c r="C5" s="100"/>
+      <c r="D5" s="106">
         <v>2008</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="100">
         <v>202</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M5" s="101">
+      <c r="L5" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M5" s="100">
         <v>0.12</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -37998,34 +37932,34 @@
       <c r="AG5" s="5"/>
     </row>
     <row r="6" spans="1:33" ht="12.75">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101" t="s">
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M6" s="101">
+      <c r="L6" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M6" s="100">
         <v>0.18</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -38043,50 +37977,50 @@
       <c r="AG6" s="5"/>
     </row>
     <row r="7" spans="1:33" ht="12.75">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="107">
+      <c r="C7" s="100"/>
+      <c r="D7" s="106">
         <v>2008</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="100">
         <v>270</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M7" s="101">
+      <c r="L7" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M7" s="100">
         <v>0.46</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -38104,34 +38038,34 @@
       <c r="AG7" s="5"/>
     </row>
     <row r="8" spans="1:33" ht="12.75">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101" t="s">
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M8" s="101">
+      <c r="L8" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M8" s="100">
         <v>0.52</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="104"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -38149,50 +38083,50 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9" spans="1:33" ht="12.75">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="107">
+      <c r="C9" s="100"/>
+      <c r="D9" s="106">
         <v>2008</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="100">
         <v>200</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M9" s="101">
+      <c r="L9" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M9" s="100">
         <v>0.37</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="104"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -38210,34 +38144,34 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10" spans="1:33" ht="12.75">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101" t="s">
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M10" s="101">
+      <c r="L10" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M10" s="100">
         <v>0.09</v>
       </c>
-      <c r="N10" s="104" t="s">
+      <c r="N10" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="104"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -38255,50 +38189,50 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:33" ht="12.75">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="107">
+      <c r="C11" s="100"/>
+      <c r="D11" s="106">
         <v>2012</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="106">
         <v>499</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M11" s="101">
+      <c r="L11" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M11" s="100">
         <v>0.26</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -38316,34 +38250,34 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12" spans="1:33" ht="12.75">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101" t="s">
+      <c r="G12" s="100"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M12" s="101">
+      <c r="L12" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M12" s="100">
         <v>0.26</v>
       </c>
-      <c r="N12" s="104" t="s">
+      <c r="N12" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -38361,47 +38295,47 @@
       <c r="AG12" s="5"/>
     </row>
     <row r="13" spans="1:33" ht="12.75">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="107">
+      <c r="C13" s="100"/>
+      <c r="D13" s="106">
         <v>2013</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="106">
         <v>137</v>
       </c>
-      <c r="I13" s="101" t="s">
+      <c r="I13" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M13" s="101">
+      <c r="L13" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M13" s="100">
         <v>0.15</v>
       </c>
-      <c r="N13" s="104" t="s">
+      <c r="N13" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="104"/>
+      <c r="O13" s="103"/>
       <c r="P13" s="92"/>
       <c r="Q13" s="92"/>
       <c r="R13" s="92"/>
@@ -38422,50 +38356,50 @@
       <c r="AG13" s="5"/>
     </row>
     <row r="14" spans="1:33" ht="12.75">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="107">
+      <c r="C14" s="100"/>
+      <c r="D14" s="106">
         <v>2010</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="100">
         <v>49</v>
       </c>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="101" t="s">
+      <c r="J14" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="101" t="s">
+      <c r="K14" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M14" s="101">
+      <c r="L14" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M14" s="100">
         <v>0.21</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
       <c r="S14" s="19" t="s">
         <v>131</v>
       </c>
@@ -38485,46 +38419,46 @@
       <c r="AG14" s="5"/>
     </row>
     <row r="15" spans="1:33" ht="12.75">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="107">
+      <c r="C15" s="100"/>
+      <c r="D15" s="106">
         <v>2010</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="100">
         <v>158</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101" t="s">
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M15" s="101">
+      <c r="L15" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M15" s="100">
         <v>0.3</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="104"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="105"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -38542,50 +38476,50 @@
       <c r="AG15" s="5"/>
     </row>
     <row r="16" spans="1:33" ht="12.75">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="107">
+      <c r="C16" s="100"/>
+      <c r="D16" s="106">
         <v>2015</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="106">
         <v>755</v>
       </c>
-      <c r="I16" s="101" t="s">
+      <c r="I16" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="101" t="s">
+      <c r="J16" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="101" t="s">
+      <c r="K16" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M16" s="101">
+      <c r="L16" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M16" s="100">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N16" s="104" t="s">
+      <c r="N16" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="104"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -38603,50 +38537,50 @@
       <c r="AG16" s="5"/>
     </row>
     <row r="17" spans="1:33" ht="12.75">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="107">
+      <c r="C17" s="100"/>
+      <c r="D17" s="106">
         <v>2016</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="101" t="s">
+      <c r="G17" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="101">
+      <c r="H17" s="100">
         <v>220</v>
       </c>
-      <c r="I17" s="101" t="s">
+      <c r="I17" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="101" t="s">
+      <c r="J17" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="K17" s="101" t="s">
+      <c r="K17" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M17" s="101">
+      <c r="L17" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M17" s="100">
         <v>0.05</v>
       </c>
-      <c r="N17" s="104" t="s">
+      <c r="N17" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="104"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -38664,48 +38598,48 @@
       <c r="AG17" s="5"/>
     </row>
     <row r="18" spans="1:33" ht="12.75">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="107">
+      <c r="C18" s="100"/>
+      <c r="D18" s="106">
         <v>2015</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="100">
         <v>389</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="101" t="s">
+      <c r="J18" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M18" s="101"/>
-      <c r="N18" s="104" t="s">
+      <c r="L18" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M18" s="100"/>
+      <c r="N18" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="104"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
       <c r="S18" s="19" t="s">
         <v>144</v>
       </c>
@@ -38725,48 +38659,48 @@
       <c r="AG18" s="5"/>
     </row>
     <row r="19" spans="1:33" ht="12.75">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="107">
+      <c r="C19" s="100"/>
+      <c r="D19" s="106">
         <v>1999</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="100">
         <v>281</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M19" s="101">
+      <c r="L19" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M19" s="100">
         <v>0.05</v>
       </c>
-      <c r="N19" s="104" t="s">
+      <c r="N19" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="104"/>
-      <c r="P19" s="101"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="100"/>
       <c r="Q19" s="92"/>
       <c r="R19" s="92"/>
       <c r="S19" s="5"/>
@@ -38802,8 +38736,8 @@
       <c r="K20" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="L20" s="101" t="s">
-        <v>569</v>
+      <c r="L20" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M20" s="94">
         <v>0.02</v>
@@ -38834,8 +38768,8 @@
       <c r="K21" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="101" t="s">
-        <v>569</v>
+      <c r="L21" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M21" s="94">
         <v>0.15</v>
@@ -38866,8 +38800,8 @@
       <c r="K22" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="L22" s="101" t="s">
-        <v>569</v>
+      <c r="L22" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M22" s="94">
         <v>0.04</v>
@@ -38898,8 +38832,8 @@
       <c r="K23" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="L23" s="101" t="s">
-        <v>569</v>
+      <c r="L23" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M23" s="94">
         <v>0.01</v>
@@ -38914,54 +38848,54 @@
       <c r="S23" s="46"/>
     </row>
     <row r="24" spans="1:33" ht="12.75">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="107">
+      <c r="C24" s="100"/>
+      <c r="D24" s="106">
         <v>2017</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="100">
         <v>300</v>
       </c>
-      <c r="I24" s="101" t="s">
+      <c r="I24" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="101" t="s">
+      <c r="J24" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="K24" s="101" t="s">
+      <c r="K24" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M24" s="101">
+      <c r="L24" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M24" s="100">
         <v>0</v>
       </c>
-      <c r="N24" s="104" t="s">
+      <c r="N24" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="104">
+      <c r="O24" s="103">
         <v>0.497</v>
       </c>
-      <c r="P24" s="101">
+      <c r="P24" s="100">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101">
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="S24" s="5"/>
@@ -38981,50 +38915,50 @@
       <c r="AG24" s="5"/>
     </row>
     <row r="25" spans="1:33" ht="12.75">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="101" t="s">
+      <c r="G25" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="100">
         <v>551</v>
       </c>
-      <c r="I25" s="101" t="s">
+      <c r="I25" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="101" t="s">
+      <c r="J25" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="101" t="s">
+      <c r="K25" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M25" s="101">
+      <c r="L25" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M25" s="100">
         <v>0.22</v>
       </c>
-      <c r="N25" s="101" t="s">
+      <c r="N25" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O25" s="101"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
       <c r="S25" s="19"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -39042,47 +38976,47 @@
       <c r="AG25" s="5"/>
     </row>
     <row r="26" spans="1:33" ht="12.75">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="107">
+      <c r="C26" s="100"/>
+      <c r="D26" s="106">
         <v>2015</v>
       </c>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="101" t="s">
+      <c r="G26" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="100">
         <v>293</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="101" t="s">
+      <c r="J26" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="101" t="s">
+      <c r="K26" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M26" s="101" t="s">
+      <c r="L26" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M26" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="101" t="s">
+      <c r="N26" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="101"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="92"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="92"/>
@@ -39103,50 +39037,50 @@
       <c r="AG26" s="5"/>
     </row>
     <row r="27" spans="1:33" ht="12.75">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="107">
+      <c r="C27" s="100"/>
+      <c r="D27" s="106">
         <v>2017</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="101" t="s">
+      <c r="F27" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="101" t="s">
+      <c r="G27" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H27" s="100">
         <v>246</v>
       </c>
-      <c r="I27" s="101" t="s">
+      <c r="I27" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="101" t="s">
+      <c r="J27" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="K27" s="101" t="s">
+      <c r="K27" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M27" s="101">
+      <c r="L27" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M27" s="100">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N27" s="101" t="s">
+      <c r="N27" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O27" s="101"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103">
+      <c r="O27" s="100"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102">
         <v>3.8340000000000001</v>
       </c>
       <c r="S27" s="7"/>
@@ -39197,8 +39131,8 @@
       <c r="K28" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="L28" s="101" t="s">
-        <v>569</v>
+      <c r="L28" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M28" s="94">
         <v>0.05</v>
@@ -39243,8 +39177,8 @@
       <c r="K29" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="L29" s="101" t="s">
-        <v>569</v>
+      <c r="L29" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M29" s="94" t="s">
         <v>76</v>
@@ -39268,8 +39202,8 @@
       <c r="D30" s="94">
         <v>2006</v>
       </c>
-      <c r="E30" s="104" t="s">
-        <v>580</v>
+      <c r="E30" s="103" t="s">
+        <v>582</v>
       </c>
       <c r="F30" s="94" t="s">
         <v>63</v>
@@ -39286,11 +39220,11 @@
       <c r="J30" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="K30" s="112" t="s">
+      <c r="K30" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="L30" s="101" t="s">
-        <v>569</v>
+      <c r="L30" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M30" s="94">
         <v>0.01</v>
@@ -39334,8 +39268,8 @@
         <v>191</v>
       </c>
       <c r="K31" s="93"/>
-      <c r="L31" s="101" t="s">
-        <v>569</v>
+      <c r="L31" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M31" s="98">
         <v>0.01</v>
@@ -39396,14 +39330,14 @@
       <c r="K32" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="101" t="s">
-        <v>569</v>
+      <c r="L32" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M32" s="94">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N32" s="104" t="s">
-        <v>581</v>
+      <c r="N32" s="103" t="s">
+        <v>583</v>
       </c>
       <c r="O32" s="94"/>
       <c r="P32" s="94"/>
@@ -39443,8 +39377,8 @@
       <c r="K33" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="L33" s="101" t="s">
-        <v>569</v>
+      <c r="L33" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M33" s="93">
         <v>3.0000000000000001E-3</v>
@@ -39452,7 +39386,7 @@
       <c r="N33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="113"/>
+      <c r="O33" s="112"/>
       <c r="P33" s="94"/>
       <c r="Q33" s="92"/>
       <c r="R33" s="92">
@@ -39508,8 +39442,8 @@
       <c r="K34" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="L34" s="101" t="s">
-        <v>569</v>
+      <c r="L34" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M34" s="88">
         <v>0.28999999999999998</v>
@@ -39571,8 +39505,8 @@
       <c r="K35" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="L35" s="101" t="s">
-        <v>569</v>
+      <c r="L35" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M35" s="91">
         <v>0.1</v>
@@ -39580,7 +39514,9 @@
       <c r="N35" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="O35" s="93"/>
+      <c r="O35" s="93" t="s">
+        <v>214</v>
+      </c>
       <c r="P35" s="94"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="92">
@@ -39607,35 +39543,35 @@
         <v>172</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C36" s="93"/>
       <c r="D36" s="98">
         <v>2010</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F36" s="93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G36" s="93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H36" s="98">
         <v>389</v>
       </c>
       <c r="I36" s="93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J36" s="91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K36" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="L36" s="101" t="s">
-        <v>569</v>
+        <v>221</v>
+      </c>
+      <c r="L36" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M36" s="98">
         <v>0.13</v>
@@ -39668,7 +39604,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C37" s="93"/>
       <c r="D37" s="98">
@@ -39681,22 +39617,22 @@
         <v>194</v>
       </c>
       <c r="G37" s="93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H37" s="98">
         <v>340</v>
       </c>
       <c r="I37" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="J37" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="L37" s="101" t="s">
-        <v>569</v>
+      <c r="L37" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M37" s="93">
         <v>0.24</v>
@@ -39727,39 +39663,39 @@
       <c r="AG37" s="26"/>
     </row>
     <row r="38" spans="1:33" ht="12.75">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C38" s="93"/>
       <c r="D38" s="93">
         <v>2015</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F38" s="93" t="s">
         <v>63</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H38" s="98">
         <v>542</v>
       </c>
       <c r="I38" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J38" s="93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K38" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="L38" s="101" t="s">
-        <v>569</v>
+        <v>365</v>
+      </c>
+      <c r="L38" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M38" s="98">
         <v>0.03</v>
@@ -39769,7 +39705,7 @@
       </c>
       <c r="O38" s="93"/>
       <c r="P38" s="98" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q38" s="98"/>
       <c r="R38" s="98">
@@ -39796,20 +39732,20 @@
       <c r="B39" s="85"/>
       <c r="D39" s="85"/>
       <c r="E39" s="85"/>
-      <c r="F39" s="103" t="s">
-        <v>233</v>
+      <c r="F39" s="102" t="s">
+        <v>234</v>
       </c>
       <c r="G39" s="94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H39" s="85"/>
       <c r="I39" s="85"/>
       <c r="J39" s="85"/>
       <c r="K39" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="L39" s="101" t="s">
-        <v>569</v>
+        <v>368</v>
+      </c>
+      <c r="L39" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M39" s="94">
         <v>0.05</v>
@@ -39820,55 +39756,55 @@
       <c r="O39" s="94"/>
       <c r="P39" s="85"/>
       <c r="Q39" s="85"/>
-      <c r="R39" s="104">
+      <c r="R39" s="103">
         <v>1.02</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="12.75">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="107">
+      <c r="C40" s="100"/>
+      <c r="D40" s="106">
         <v>2011</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="101" t="s">
+      <c r="F40" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="101" t="s">
+      <c r="G40" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="100">
         <v>85</v>
       </c>
-      <c r="I40" s="101" t="s">
+      <c r="I40" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="101" t="s">
+      <c r="J40" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="101" t="s">
+      <c r="K40" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M40" s="101">
+      <c r="L40" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M40" s="100">
         <v>-0.05</v>
       </c>
-      <c r="N40" s="101" t="s">
+      <c r="N40" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O40" s="101"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="103"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="102"/>
       <c r="S40" s="26"/>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
@@ -39886,34 +39822,34 @@
       <c r="AG40" s="26"/>
     </row>
     <row r="41" spans="1:33" ht="12.75">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101" t="s">
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101" t="s">
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M41" s="101">
+      <c r="L41" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M41" s="100">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N41" s="101" t="s">
+      <c r="N41" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O41" s="101"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="103"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="102"/>
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
@@ -39931,96 +39867,96 @@
       <c r="AG41" s="26"/>
     </row>
     <row r="42" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="107">
+      <c r="C42" s="100"/>
+      <c r="D42" s="106">
         <v>2017</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="101" t="s">
+      <c r="F42" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="101" t="s">
+      <c r="G42" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="101">
+      <c r="H42" s="100">
         <v>391</v>
       </c>
-      <c r="I42" s="101" t="s">
+      <c r="I42" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="101" t="s">
+      <c r="J42" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="101" t="s">
+      <c r="K42" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="L42" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M42" s="101">
+      <c r="L42" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M42" s="100">
         <v>0.06</v>
       </c>
-      <c r="N42" s="101" t="s">
+      <c r="N42" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="101"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="103"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="102"/>
     </row>
     <row r="43" spans="1:33" ht="12.75">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="107">
+      <c r="C43" s="100"/>
+      <c r="D43" s="106">
         <v>2007</v>
       </c>
-      <c r="E43" s="101" t="s">
+      <c r="E43" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="101" t="s">
+      <c r="F43" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="101" t="s">
+      <c r="G43" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="H43" s="101">
+      <c r="H43" s="100">
         <v>202</v>
       </c>
-      <c r="I43" s="101" t="s">
+      <c r="I43" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="101" t="s">
+      <c r="J43" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K43" s="101" t="s">
+      <c r="K43" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L43" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M43" s="101">
+      <c r="L43" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M43" s="100">
         <v>0.3</v>
       </c>
-      <c r="N43" s="104" t="s">
+      <c r="N43" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O43" s="104"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
@@ -40038,34 +39974,34 @@
       <c r="AG43" s="11"/>
     </row>
     <row r="44" spans="1:33" ht="12.75">
-      <c r="A44" s="101"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101" t="s">
+      <c r="A44" s="100"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101" t="s">
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="L44" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M44" s="101">
+      <c r="L44" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M44" s="100">
         <v>0.32</v>
       </c>
-      <c r="N44" s="104" t="s">
+      <c r="N44" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O44" s="104"/>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="102"/>
       <c r="S44" s="30"/>
       <c r="T44" s="26"/>
       <c r="U44" s="26"/>
@@ -40083,50 +40019,50 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33" ht="12.75">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="101"/>
-      <c r="D45" s="107">
+      <c r="C45" s="100"/>
+      <c r="D45" s="106">
         <v>2007</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="101" t="s">
+      <c r="F45" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="101">
+      <c r="H45" s="100">
         <v>270</v>
       </c>
-      <c r="I45" s="101" t="s">
+      <c r="I45" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J45" s="101" t="s">
+      <c r="J45" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K45" s="101" t="s">
+      <c r="K45" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L45" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M45" s="101">
+      <c r="L45" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M45" s="100">
         <v>-0.02</v>
       </c>
-      <c r="N45" s="104" t="s">
+      <c r="N45" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O45" s="104"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
@@ -40144,504 +40080,504 @@
       <c r="AG45" s="11"/>
     </row>
     <row r="46" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A46" s="101"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101" t="s">
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101" t="s">
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M46" s="101">
+      <c r="L46" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M46" s="100">
         <v>0.1</v>
       </c>
-      <c r="N46" s="104" t="s">
+      <c r="N46" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="104"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="102"/>
     </row>
     <row r="47" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="107">
+      <c r="C47" s="100"/>
+      <c r="D47" s="106">
         <v>2007</v>
       </c>
-      <c r="E47" s="101" t="s">
+      <c r="E47" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="101" t="s">
+      <c r="F47" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="101" t="s">
+      <c r="G47" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="101">
+      <c r="H47" s="100">
         <v>200</v>
       </c>
-      <c r="I47" s="101" t="s">
+      <c r="I47" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J47" s="101" t="s">
+      <c r="J47" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="K47" s="101" t="s">
+      <c r="K47" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="L47" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M47" s="101">
+      <c r="L47" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M47" s="100">
         <v>0.25</v>
       </c>
-      <c r="N47" s="104" t="s">
+      <c r="N47" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O47" s="104"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="102"/>
     </row>
     <row r="48" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A48" s="101"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101" t="s">
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101" t="s">
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="L48" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M48" s="101">
+      <c r="L48" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M48" s="100">
         <v>0.38</v>
       </c>
-      <c r="N48" s="104" t="s">
+      <c r="N48" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O48" s="104"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="102"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B49" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="107">
+      <c r="C49" s="100"/>
+      <c r="D49" s="106">
         <v>2012</v>
       </c>
-      <c r="E49" s="101" t="s">
+      <c r="E49" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="101" t="s">
+      <c r="F49" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="101" t="s">
+      <c r="G49" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="H49" s="107">
+      <c r="H49" s="106">
         <v>499</v>
       </c>
-      <c r="I49" s="101" t="s">
+      <c r="I49" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="J49" s="101" t="s">
+      <c r="J49" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="101" t="s">
+      <c r="K49" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="L49" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M49" s="101">
+      <c r="L49" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M49" s="100">
         <v>0.2</v>
       </c>
-      <c r="N49" s="104" t="s">
+      <c r="N49" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O49" s="104"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="103"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="100"/>
+      <c r="R49" s="102"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101" t="s">
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="101"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101" t="s">
+      <c r="G50" s="100"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M50" s="101">
+      <c r="L50" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M50" s="100">
         <v>0.25</v>
       </c>
-      <c r="N50" s="104" t="s">
+      <c r="N50" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O50" s="104"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="102"/>
     </row>
     <row r="51" spans="1:18" ht="12.75">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="107">
+      <c r="C51" s="100"/>
+      <c r="D51" s="106">
         <v>2013</v>
       </c>
-      <c r="E51" s="101" t="s">
+      <c r="E51" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="101" t="s">
+      <c r="F51" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="101" t="s">
+      <c r="G51" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="107">
+      <c r="H51" s="106">
         <v>137</v>
       </c>
-      <c r="I51" s="101" t="s">
+      <c r="I51" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="101" t="s">
+      <c r="J51" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="K51" s="101" t="s">
+      <c r="K51" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="L51" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M51" s="101">
+      <c r="L51" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M51" s="100">
         <v>0.35</v>
       </c>
-      <c r="N51" s="104" t="s">
+      <c r="N51" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O51" s="104"/>
+      <c r="O51" s="103"/>
       <c r="P51" s="92"/>
       <c r="Q51" s="92"/>
-      <c r="R51" s="103"/>
+      <c r="R51" s="102"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="107">
+      <c r="C52" s="100"/>
+      <c r="D52" s="106">
         <v>2010</v>
       </c>
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="101" t="s">
+      <c r="F52" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="101" t="s">
+      <c r="G52" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="H52" s="101">
+      <c r="H52" s="100">
         <v>49</v>
       </c>
-      <c r="I52" s="101" t="s">
+      <c r="I52" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J52" s="101" t="s">
+      <c r="J52" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="K52" s="101" t="s">
+      <c r="K52" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L52" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M52" s="101">
+      <c r="L52" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M52" s="100">
         <v>0.52</v>
       </c>
-      <c r="N52" s="104" t="s">
+      <c r="N52" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O52" s="104"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="104"/>
+      <c r="O52" s="103"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="103"/>
     </row>
     <row r="53" spans="1:18" ht="12.75">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="107">
+      <c r="C53" s="100"/>
+      <c r="D53" s="106">
         <v>2010</v>
       </c>
-      <c r="E53" s="101" t="s">
+      <c r="E53" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="101" t="s">
+      <c r="F53" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="101" t="s">
+      <c r="G53" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="H53" s="101">
+      <c r="H53" s="100">
         <v>158</v>
       </c>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101" t="s">
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L53" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M53" s="101">
+      <c r="L53" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M53" s="100">
         <v>0.34</v>
       </c>
-      <c r="N53" s="104" t="s">
+      <c r="N53" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O53" s="104"/>
-      <c r="P53" s="101"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="103"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="104"/>
+      <c r="R53" s="102"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="101" t="s">
+      <c r="B54" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="107">
+      <c r="C54" s="100"/>
+      <c r="D54" s="106">
         <v>2015</v>
       </c>
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="101" t="s">
+      <c r="F54" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="101" t="s">
+      <c r="G54" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="107">
+      <c r="H54" s="106">
         <v>755</v>
       </c>
-      <c r="I54" s="101" t="s">
+      <c r="I54" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="J54" s="101" t="s">
+      <c r="J54" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="K54" s="101" t="s">
+      <c r="K54" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="L54" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M54" s="101">
+      <c r="L54" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M54" s="100">
         <v>0.27</v>
       </c>
-      <c r="N54" s="104" t="s">
+      <c r="N54" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O54" s="104"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="103"/>
+      <c r="O54" s="103"/>
+      <c r="P54" s="100"/>
+      <c r="Q54" s="100"/>
+      <c r="R54" s="102"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="107">
+      <c r="C55" s="100"/>
+      <c r="D55" s="106">
         <v>2016</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="101" t="s">
+      <c r="F55" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="101" t="s">
+      <c r="G55" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="101">
+      <c r="H55" s="100">
         <v>220</v>
       </c>
-      <c r="I55" s="101" t="s">
+      <c r="I55" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J55" s="101" t="s">
+      <c r="J55" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="K55" s="101" t="s">
+      <c r="K55" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M55" s="101">
+      <c r="L55" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M55" s="100">
         <v>0.45</v>
       </c>
-      <c r="N55" s="104" t="s">
+      <c r="N55" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O55" s="104"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="103"/>
+      <c r="O55" s="103"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="102"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="107">
+      <c r="C56" s="100"/>
+      <c r="D56" s="106">
         <v>2015</v>
       </c>
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="F56" s="101" t="s">
+      <c r="F56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="101" t="s">
+      <c r="G56" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="H56" s="101">
+      <c r="H56" s="100">
         <v>389</v>
       </c>
-      <c r="I56" s="101" t="s">
+      <c r="I56" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="J56" s="101" t="s">
+      <c r="J56" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="K56" s="101" t="s">
+      <c r="K56" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="L56" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M56" s="101">
+      <c r="L56" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M56" s="100">
         <v>0.27</v>
       </c>
-      <c r="N56" s="104" t="s">
+      <c r="N56" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O56" s="104"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="104"/>
+      <c r="O56" s="103"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="103"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="107">
+      <c r="C57" s="100"/>
+      <c r="D57" s="106">
         <v>1999</v>
       </c>
-      <c r="E57" s="101" t="s">
+      <c r="E57" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="101" t="s">
+      <c r="F57" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="101" t="s">
+      <c r="G57" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="H57" s="101">
+      <c r="H57" s="100">
         <v>281</v>
       </c>
-      <c r="I57" s="101" t="s">
+      <c r="I57" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="J57" s="101" t="s">
+      <c r="J57" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K57" s="101" t="s">
+      <c r="K57" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="L57" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M57" s="101">
+      <c r="L57" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M57" s="100">
         <v>0.32</v>
       </c>
-      <c r="N57" s="104" t="s">
+      <c r="N57" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="O57" s="104"/>
-      <c r="P57" s="101"/>
+      <c r="O57" s="103"/>
+      <c r="P57" s="100"/>
       <c r="Q57" s="92"/>
-      <c r="R57" s="103"/>
+      <c r="R57" s="102"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1">
       <c r="A58" s="85"/>
@@ -40660,8 +40596,8 @@
       <c r="K58" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="L58" s="101" t="s">
-        <v>572</v>
+      <c r="L58" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M58" s="94">
         <v>0.43</v>
@@ -40691,8 +40627,8 @@
       <c r="K59" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="L59" s="101" t="s">
-        <v>572</v>
+      <c r="L59" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M59" s="94">
         <v>0.16</v>
@@ -40722,8 +40658,8 @@
       <c r="K60" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="L60" s="101" t="s">
-        <v>572</v>
+      <c r="L60" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M60" s="94">
         <v>0.39</v>
@@ -40753,8 +40689,8 @@
       <c r="K61" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="L61" s="101" t="s">
-        <v>572</v>
+      <c r="L61" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M61" s="94">
         <v>0.23</v>
@@ -40768,192 +40704,192 @@
       <c r="R61" s="85"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="101" t="s">
+      <c r="B62" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="107">
+      <c r="C62" s="100"/>
+      <c r="D62" s="106">
         <v>2017</v>
       </c>
-      <c r="E62" s="101" t="s">
+      <c r="E62" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="101" t="s">
+      <c r="F62" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G62" s="101" t="s">
+      <c r="G62" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="H62" s="101">
+      <c r="H62" s="100">
         <v>300</v>
       </c>
-      <c r="I62" s="101" t="s">
+      <c r="I62" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="J62" s="101" t="s">
+      <c r="J62" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="K62" s="101" t="s">
+      <c r="K62" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="L62" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M62" s="101">
+      <c r="L62" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M62" s="100">
         <v>0.13</v>
       </c>
-      <c r="N62" s="104" t="s">
+      <c r="N62" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O62" s="104">
+      <c r="O62" s="103">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P62" s="101">
+      <c r="P62" s="100">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="103">
+      <c r="Q62" s="100"/>
+      <c r="R62" s="102">
         <v>1.7110000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101" t="s">
+      <c r="C63" s="100"/>
+      <c r="D63" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="101" t="s">
+      <c r="E63" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="101" t="s">
+      <c r="F63" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="101" t="s">
+      <c r="G63" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="H63" s="101">
+      <c r="H63" s="100">
         <v>551</v>
       </c>
-      <c r="I63" s="101" t="s">
+      <c r="I63" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="J63" s="101" t="s">
+      <c r="J63" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="K63" s="101" t="s">
+      <c r="K63" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="L63" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M63" s="101">
+      <c r="L63" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M63" s="100">
         <v>0.2</v>
       </c>
-      <c r="N63" s="101" t="s">
+      <c r="N63" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O63" s="101"/>
-      <c r="P63" s="103">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="104"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="102" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="103"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="101"/>
-      <c r="D64" s="107">
+      <c r="C64" s="100"/>
+      <c r="D64" s="106">
         <v>2015</v>
       </c>
-      <c r="E64" s="101" t="s">
+      <c r="E64" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="F64" s="101" t="s">
+      <c r="F64" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="G64" s="101" t="s">
+      <c r="G64" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="H64" s="101">
+      <c r="H64" s="100">
         <v>293</v>
       </c>
-      <c r="I64" s="101" t="s">
+      <c r="I64" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="101" t="s">
+      <c r="J64" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K64" s="101" t="s">
+      <c r="K64" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="L64" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="101"/>
+      <c r="L64" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
     </row>
     <row r="65" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="107">
+      <c r="C65" s="100"/>
+      <c r="D65" s="106">
         <v>2017</v>
       </c>
-      <c r="E65" s="101" t="s">
+      <c r="E65" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="101" t="s">
+      <c r="F65" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="101" t="s">
+      <c r="G65" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H65" s="101">
+      <c r="H65" s="100">
         <v>246</v>
       </c>
-      <c r="I65" s="101" t="s">
+      <c r="I65" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J65" s="101" t="s">
+      <c r="J65" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="K65" s="101" t="s">
+      <c r="K65" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="L65" s="101" t="s">
-        <v>572</v>
-      </c>
-      <c r="M65" s="101">
+      <c r="L65" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="M65" s="100">
         <v>0.34</v>
       </c>
-      <c r="N65" s="101" t="s">
+      <c r="N65" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="O65" s="101"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101">
+      <c r="O65" s="100"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="100"/>
+      <c r="R65" s="100">
         <v>1.7929999999999999</v>
       </c>
     </row>
@@ -40989,8 +40925,8 @@
       <c r="K66" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="L66" s="101" t="s">
-        <v>572</v>
+      <c r="L66" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M66" s="94">
         <v>0.54</v>
@@ -41034,8 +40970,8 @@
       <c r="K67" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="L67" s="101" t="s">
-        <v>572</v>
+      <c r="L67" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M67" s="94">
         <v>0.26</v>
@@ -41076,11 +41012,11 @@
       <c r="J68" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="K68" s="112" t="s">
+      <c r="K68" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="L68" s="101" t="s">
-        <v>572</v>
+      <c r="L68" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M68" s="94">
         <v>0.28000000000000003</v>
@@ -41123,8 +41059,8 @@
         <v>191</v>
       </c>
       <c r="K69" s="93"/>
-      <c r="L69" s="101" t="s">
-        <v>572</v>
+      <c r="L69" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M69" s="93">
         <v>0.54</v>
@@ -41170,13 +41106,13 @@
       <c r="K70" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="L70" s="101" t="s">
-        <v>572</v>
+      <c r="L70" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M70" s="94">
         <v>0.1</v>
       </c>
-      <c r="N70" s="104" t="s">
+      <c r="N70" s="103" t="s">
         <v>50</v>
       </c>
       <c r="O70" s="94">
@@ -41218,8 +41154,8 @@
       <c r="K71" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="L71" s="101" t="s">
-        <v>572</v>
+      <c r="L71" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M71" s="93">
         <v>0.19</v>
@@ -41266,8 +41202,8 @@
       <c r="K72" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="L72" s="101" t="s">
-        <v>572</v>
+      <c r="L72" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M72" s="88">
         <v>0.24</v>
@@ -41278,7 +41214,7 @@
       <c r="O72" s="88">
         <v>0.01</v>
       </c>
-      <c r="P72" s="106"/>
+      <c r="P72" s="105"/>
       <c r="Q72" s="88"/>
       <c r="R72" s="87"/>
     </row>
@@ -41314,8 +41250,8 @@
       <c r="K73" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="L73" s="101" t="s">
-        <v>572</v>
+      <c r="L73" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M73" s="93">
         <v>0.6</v>
@@ -41335,35 +41271,35 @@
         <v>172</v>
       </c>
       <c r="B74" s="91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C74" s="93"/>
       <c r="D74" s="98">
         <v>2010</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F74" s="93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G74" s="93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H74" s="98">
         <v>389</v>
       </c>
       <c r="I74" s="93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J74" s="91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K74" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="L74" s="101" t="s">
-        <v>572</v>
+        <v>221</v>
+      </c>
+      <c r="L74" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M74" s="93">
         <v>0.23</v>
@@ -41381,7 +41317,7 @@
         <v>16</v>
       </c>
       <c r="B75" s="91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C75" s="93"/>
       <c r="D75" s="98">
@@ -41394,22 +41330,22 @@
         <v>194</v>
       </c>
       <c r="G75" s="93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H75" s="98">
         <v>340</v>
       </c>
       <c r="I75" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="J75" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="K75" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="J75" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="K75" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="L75" s="101" t="s">
-        <v>572</v>
+      <c r="L75" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M75" s="93">
         <v>0.59</v>
@@ -41425,39 +41361,39 @@
       </c>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C76" s="93"/>
       <c r="D76" s="93">
         <v>2015</v>
       </c>
       <c r="E76" s="93" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F76" s="93" t="s">
         <v>63</v>
       </c>
       <c r="G76" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H76" s="98">
         <v>542</v>
       </c>
       <c r="I76" s="93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J76" s="93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K76" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="L76" s="101" t="s">
-        <v>572</v>
+        <v>365</v>
+      </c>
+      <c r="L76" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M76" s="91">
         <v>0.34</v>
@@ -41477,20 +41413,20 @@
       <c r="B77" s="85"/>
       <c r="D77" s="85"/>
       <c r="E77" s="85"/>
-      <c r="F77" s="103" t="s">
-        <v>233</v>
+      <c r="F77" s="102" t="s">
+        <v>234</v>
       </c>
       <c r="G77" s="94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H77" s="85"/>
       <c r="I77" s="85"/>
       <c r="J77" s="85"/>
       <c r="K77" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="L77" s="101" t="s">
-        <v>572</v>
+        <v>368</v>
+      </c>
+      <c r="L77" s="100" t="s">
+        <v>573</v>
       </c>
       <c r="M77" s="94">
         <v>0.23</v>
@@ -41501,7 +41437,7 @@
       <c r="O77" s="94"/>
       <c r="P77" s="85"/>
       <c r="Q77" s="85"/>
-      <c r="R77" s="104">
+      <c r="R77" s="103">
         <v>4.3899999999999997</v>
       </c>
     </row>
@@ -41522,8 +41458,8 @@
   </sheetPr>
   <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41568,10 +41504,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -41608,51 +41544,51 @@
       <c r="AL1" s="5"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="107">
+      <c r="C2" s="100"/>
+      <c r="D2" s="106">
         <v>2012</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="101">
+      <c r="H2" s="100">
         <v>48</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M2" s="101">
+      <c r="L2" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M2" s="100">
         <v>0.31</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="104">
+      <c r="O2" s="100"/>
+      <c r="P2" s="103">
         <v>0.153</v>
       </c>
-      <c r="Q2" s="104"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -41676,49 +41612,49 @@
       <c r="AL2" s="5"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="107">
+      <c r="C3" s="100"/>
+      <c r="D3" s="106">
         <v>2012</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="101">
+      <c r="H3" s="100">
         <v>222</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M3" s="115" t="s">
+      <c r="L3" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M3" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -41742,51 +41678,51 @@
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="107">
+      <c r="C4" s="100"/>
+      <c r="D4" s="106">
         <v>2014</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="100">
         <v>491</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M4" s="101">
+      <c r="L4" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M4" s="100">
         <v>0.16</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
       <c r="R4" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -41810,33 +41746,33 @@
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101" t="s">
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M5" s="101">
+      <c r="L5" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M5" s="100">
         <v>0.21</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="101"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -41860,49 +41796,49 @@
       <c r="AL5" s="5"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="107">
+      <c r="C6" s="100"/>
+      <c r="D6" s="106">
         <v>2015</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="100">
         <v>279</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="101" t="s">
+      <c r="J6" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M6" s="101">
+      <c r="L6" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M6" s="100">
         <v>0.11</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
       <c r="R6" s="6"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
@@ -41925,49 +41861,49 @@
       <c r="AK6" s="5"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="107">
+      <c r="C7" s="100"/>
+      <c r="D7" s="106">
         <v>2015</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="100">
         <v>1168</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="L7" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M7" s="101">
+      <c r="K7" s="100" t="s">
+        <v>587</v>
+      </c>
+      <c r="L7" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M7" s="100">
         <v>0.03</v>
       </c>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -41996,8 +41932,8 @@
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="92"/>
-      <c r="F8" s="104" t="s">
-        <v>566</v>
+      <c r="F8" s="103" t="s">
+        <v>567</v>
       </c>
       <c r="G8" s="94"/>
       <c r="H8" s="85"/>
@@ -42006,8 +41942,8 @@
       <c r="K8" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="101" t="s">
-        <v>569</v>
+      <c r="L8" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M8" s="94">
         <v>0.03</v>
@@ -42016,57 +41952,57 @@
         <v>35</v>
       </c>
       <c r="O8" s="94"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="107">
+      <c r="C9" s="100"/>
+      <c r="D9" s="106">
         <v>2011</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="100">
         <v>452</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M9" s="101">
+      <c r="L9" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M9" s="100">
         <v>0.13</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -42090,49 +42026,49 @@
       <c r="AL9" s="5"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="107">
+      <c r="C10" s="100"/>
+      <c r="D10" s="106">
         <v>2011</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="106">
         <v>743</v>
       </c>
-      <c r="I10" s="101" t="s">
+      <c r="I10" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="101" t="s">
+      <c r="J10" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="M10" s="101">
+      <c r="K10" s="100"/>
+      <c r="L10" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="M10" s="100">
         <v>-0.01</v>
       </c>
-      <c r="N10" s="101" t="s">
+      <c r="N10" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="100">
         <v>0.89800000000000002</v>
       </c>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -42156,7 +42092,7 @@
       <c r="AL10" s="5"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="94" t="s">
@@ -42169,7 +42105,7 @@
       <c r="E11" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="100" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="94" t="s">
@@ -42187,8 +42123,8 @@
       <c r="K11" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="101" t="s">
-        <v>569</v>
+      <c r="L11" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M11" s="94">
         <v>0.06</v>
@@ -42197,8 +42133,8 @@
         <v>35</v>
       </c>
       <c r="O11" s="94"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
@@ -42210,7 +42146,7 @@
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="92"/>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="100" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="85"/>
@@ -42226,8 +42162,8 @@
       <c r="K12" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="101" t="s">
-        <v>569</v>
+      <c r="L12" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M12" s="94">
         <v>0.28000000000000003</v>
@@ -42236,8 +42172,8 @@
         <v>59</v>
       </c>
       <c r="O12" s="94"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
@@ -42275,8 +42211,8 @@
       <c r="K13" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="L13" s="101" t="s">
-        <v>569</v>
+      <c r="L13" s="100" t="s">
+        <v>570</v>
       </c>
       <c r="M13" s="88">
         <v>0.08</v>
@@ -42310,217 +42246,217 @@
       <c r="AL13" s="26"/>
     </row>
     <row r="14" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="107">
+      <c r="C14" s="100"/>
+      <c r="D14" s="106">
         <v>2012</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G14" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="100">
         <v>48</v>
       </c>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="101" t="s">
+      <c r="J14" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="101" t="s">
+      <c r="K14" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M14" s="101">
+      <c r="L14" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M14" s="100">
         <v>0.53</v>
       </c>
-      <c r="N14" s="101" t="s">
+      <c r="N14" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="104">
+      <c r="O14" s="100"/>
+      <c r="P14" s="103">
         <v>0.16500000000000001</v>
       </c>
-      <c r="Q14" s="103"/>
+      <c r="Q14" s="102"/>
     </row>
     <row r="15" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="107">
+      <c r="C15" s="100"/>
+      <c r="D15" s="106">
         <v>2012</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="100">
         <v>222</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="101" t="s">
+      <c r="J15" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M15" s="101">
+      <c r="L15" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M15" s="100">
         <v>0.32</v>
       </c>
-      <c r="N15" s="101" t="s">
+      <c r="N15" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="101"/>
-      <c r="P15" s="104">
+      <c r="O15" s="100"/>
+      <c r="P15" s="103">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="Q15" s="103"/>
+      <c r="Q15" s="102"/>
     </row>
     <row r="16" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="107">
+      <c r="C16" s="100"/>
+      <c r="D16" s="106">
         <v>2014</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="100">
         <v>491</v>
       </c>
-      <c r="I16" s="101" t="s">
+      <c r="I16" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="101" t="s">
+      <c r="J16" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="101" t="s">
+      <c r="K16" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M16" s="101">
+      <c r="L16" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M16" s="100">
         <v>0.3</v>
       </c>
-      <c r="N16" s="101" t="s">
+      <c r="N16" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="101"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="101"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="100"/>
     </row>
     <row r="17" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101" t="s">
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M17" s="101">
+      <c r="L17" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M17" s="100">
         <v>0.37</v>
       </c>
-      <c r="N17" s="101" t="s">
+      <c r="N17" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="101"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="101"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="100"/>
     </row>
     <row r="18" spans="1:38" ht="12.75">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="107">
+      <c r="C18" s="100"/>
+      <c r="D18" s="106">
         <v>2015</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="100">
         <v>279</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="101" t="s">
+      <c r="J18" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M18" s="101">
+      <c r="L18" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M18" s="100">
         <v>0.01</v>
       </c>
-      <c r="N18" s="104" t="s">
+      <c r="N18" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="104"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -42544,49 +42480,49 @@
       <c r="AL18" s="26"/>
     </row>
     <row r="19" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="107">
+      <c r="C19" s="100"/>
+      <c r="D19" s="106">
         <v>2015</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="100">
         <v>1168</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M19" s="101">
+      <c r="L19" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M19" s="100">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N19" s="101" t="s">
+      <c r="N19" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="101"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="101"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="100"/>
     </row>
     <row r="20" spans="1:38" ht="15.75" customHeight="1">
       <c r="A20" s="85"/>
@@ -42594,8 +42530,8 @@
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="92"/>
-      <c r="F20" s="104" t="s">
-        <v>566</v>
+      <c r="F20" s="103" t="s">
+        <v>567</v>
       </c>
       <c r="G20" s="94"/>
       <c r="H20" s="85"/>
@@ -42604,8 +42540,8 @@
       <c r="K20" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="101" t="s">
-        <v>574</v>
+      <c r="L20" s="100" t="s">
+        <v>576</v>
       </c>
       <c r="M20" s="94">
         <v>0.2</v>
@@ -42614,101 +42550,101 @@
         <v>59</v>
       </c>
       <c r="O20" s="94"/>
-      <c r="P20" s="104"/>
+      <c r="P20" s="103"/>
       <c r="Q20" s="85"/>
     </row>
     <row r="21" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="107">
+      <c r="C21" s="100"/>
+      <c r="D21" s="106">
         <v>2011</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="100">
         <v>452</v>
       </c>
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="101" t="s">
+      <c r="J21" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="101" t="s">
+      <c r="K21" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M21" s="101">
+      <c r="L21" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M21" s="100">
         <v>0.19</v>
       </c>
-      <c r="N21" s="101" t="s">
+      <c r="N21" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="101"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="101"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="100"/>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="107">
+      <c r="C22" s="100"/>
+      <c r="D22" s="106">
         <v>2011</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="101" t="s">
+      <c r="F22" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="101" t="s">
+      <c r="G22" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="106">
         <v>743</v>
       </c>
-      <c r="I22" s="101" t="s">
+      <c r="I22" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="101" t="s">
+      <c r="J22" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="M22" s="101">
+      <c r="K22" s="100"/>
+      <c r="L22" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="M22" s="100">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N22" s="101" t="s">
+      <c r="N22" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="100">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="101"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="100"/>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="100" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="94" t="s">
@@ -42721,7 +42657,7 @@
       <c r="E23" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="100" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="94" t="s">
@@ -42739,8 +42675,8 @@
       <c r="K23" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="101" t="s">
-        <v>574</v>
+      <c r="L23" s="100" t="s">
+        <v>576</v>
       </c>
       <c r="M23" s="94">
         <v>0.33</v>
@@ -42749,7 +42685,7 @@
         <v>59</v>
       </c>
       <c r="O23" s="94"/>
-      <c r="P23" s="114"/>
+      <c r="P23" s="113"/>
       <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1">
@@ -42758,7 +42694,7 @@
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
       <c r="E24" s="92"/>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="100" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="85"/>
@@ -42774,8 +42710,8 @@
       <c r="K24" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="101" t="s">
-        <v>574</v>
+      <c r="L24" s="100" t="s">
+        <v>576</v>
       </c>
       <c r="M24" s="94">
         <v>0.37</v>
@@ -42784,7 +42720,7 @@
         <v>59</v>
       </c>
       <c r="O24" s="94"/>
-      <c r="P24" s="114"/>
+      <c r="P24" s="113"/>
       <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1">
@@ -42819,8 +42755,8 @@
       <c r="K25" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="101" t="s">
-        <v>574</v>
+      <c r="L25" s="100" t="s">
+        <v>576</v>
       </c>
       <c r="M25" s="88">
         <v>0.15</v>
@@ -42887,8 +42823,8 @@
   </sheetPr>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -42933,10 +42869,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -42951,10 +42887,10 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -42971,38 +42907,38 @@
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>2016</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H2" s="6">
         <v>762</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M2" s="6">
         <v>0.04</v>
@@ -43032,44 +42968,44 @@
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>2018</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H3" s="6">
         <v>322</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M3" s="6">
         <v>0.05</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="6"/>
@@ -43104,10 +43040,10 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M4" s="6">
         <v>0.12</v>
@@ -43136,23 +43072,23 @@
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
         <v>2012</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H5" s="8">
         <v>247</v>
@@ -43161,26 +43097,26 @@
         <v>60</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M5" s="6">
         <v>0.46</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -43196,20 +43132,20 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
         <v>2010</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>91</v>
@@ -43218,27 +43154,27 @@
         <v>527</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M6" s="6">
         <v>0.03</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101">
+        <v>337</v>
+      </c>
+      <c r="O6" s="103"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100">
         <v>0.70299999999999996</v>
       </c>
       <c r="S6" s="5"/>
@@ -43261,7 +43197,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="18"/>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="8">
@@ -43270,21 +43206,21 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M7" s="6">
         <v>-0.05</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101">
+        <v>337</v>
+      </c>
+      <c r="O7" s="103"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100">
         <v>-0.88200000000000001</v>
       </c>
       <c r="S7" s="5"/>
@@ -43302,17 +43238,17 @@
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
         <v>2009</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>72</v>
@@ -43324,27 +43260,27 @@
         <v>164</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M8" s="6">
         <v>0.02</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="O8" s="101"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
+        <v>337</v>
+      </c>
+      <c r="O8" s="100"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
       <c r="S8" s="19"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -43373,16 +43309,16 @@
         <v>175</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M9" s="23">
         <v>0.05</v>
@@ -43410,23 +43346,23 @@
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>2017</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H10" s="8">
         <v>320</v>
@@ -43435,13 +43371,13 @@
         <v>92</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>376</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M10" s="6">
         <v>0.02</v>
@@ -43449,10 +43385,10 @@
       <c r="N10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101">
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100">
         <v>0.28999999999999998</v>
       </c>
       <c r="S10" s="5"/>
@@ -43471,44 +43407,47 @@
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="34">
         <v>2014</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>194</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H11" s="34">
         <v>827</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M11" s="40">
         <v>0.18</v>
       </c>
       <c r="N11" s="30" t="s">
         <v>50</v>
+      </c>
+      <c r="O11" s="93" t="s">
+        <v>385</v>
       </c>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
@@ -43533,10 +43472,10 @@
         <v>194</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M12" s="23">
         <v>0.4</v>
@@ -43544,45 +43483,45 @@
       <c r="N12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="93"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="28">
         <v>2016</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H13" s="28">
         <v>132</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M13" s="30">
         <v>0.14000000000000001</v>
@@ -43610,38 +43549,38 @@
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8">
         <v>2016</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>762</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M14" s="7">
         <v>0.6</v>
@@ -43658,38 +43597,38 @@
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8">
         <v>2018</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H15" s="7">
         <v>322</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M15" s="7">
         <v>0.33</v>
@@ -43717,10 +43656,10 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M16" s="7">
         <v>0.22</v>
@@ -43736,23 +43675,23 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8">
         <v>2012</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H17" s="8">
         <v>247</v>
@@ -43761,13 +43700,13 @@
         <v>60</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>0.08</v>
@@ -43780,20 +43719,20 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="A18" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
         <v>2010</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>91</v>
@@ -43802,16 +43741,16 @@
         <v>527</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M18" s="7">
         <v>0.13</v>
@@ -43832,7 +43771,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="18"/>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8">
@@ -43841,10 +43780,10 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>0.18</v>
@@ -43860,17 +43799,17 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
         <v>2009</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>72</v>
@@ -43882,16 +43821,16 @@
         <v>164</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>0.2</v>
@@ -43916,16 +43855,16 @@
         <v>175</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K21" s="58" t="s">
         <v>201</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M21" s="23">
         <v>0.18</v>
@@ -43938,23 +43877,23 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8">
         <v>2017</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H22" s="8">
         <v>320</v>
@@ -43963,13 +43902,13 @@
         <v>92</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>0.11</v>
@@ -43985,38 +43924,38 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="52">
         <v>2014</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F23" s="64" t="s">
         <v>194</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H23" s="52">
         <v>827</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J23" s="70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M23" s="64">
         <v>-0.1</v>
@@ -44041,10 +43980,10 @@
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
       <c r="K24" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M24" s="23">
         <v>2.84</v>
@@ -44052,43 +43991,45 @@
       <c r="N24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="23"/>
+      <c r="O24" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1">
       <c r="A25" s="64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="52">
         <v>2016</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H25" s="52">
         <v>132</v>
       </c>
       <c r="I25" s="70" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M25" s="70">
         <v>0.46</v>
@@ -44096,43 +44037,45 @@
       <c r="N25" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="O25" s="70"/>
+      <c r="O25" s="70" t="s">
+        <v>385</v>
+      </c>
       <c r="P25" s="70"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
         <v>2016</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>762</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>0.14000000000000001</v>
@@ -44148,38 +44091,38 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8">
         <v>2018</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H27" s="7">
         <v>322</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M27" s="7">
         <v>0.1</v>
@@ -44207,16 +44150,16 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M28" s="7">
         <v>0.33</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="20"/>
@@ -44226,23 +44169,23 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8">
         <v>2012</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H29" s="8">
         <v>247</v>
@@ -44251,13 +44194,13 @@
         <v>60</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M29" s="7">
         <v>0.37</v>
@@ -44270,20 +44213,20 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8">
         <v>2010</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>91</v>
@@ -44292,16 +44235,16 @@
         <v>527</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
         <v>0.08</v>
@@ -44322,7 +44265,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="18"/>
       <c r="F31" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8">
@@ -44331,10 +44274,10 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M31" s="7">
         <v>0.13</v>
@@ -44350,17 +44293,17 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8">
         <v>2009</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>72</v>
@@ -44372,16 +44315,16 @@
         <v>164</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M32" s="7">
         <v>0.26</v>
@@ -44406,16 +44349,16 @@
         <v>175</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J33" s="58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K33" s="58" t="s">
         <v>201</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M33" s="23">
         <v>0.15</v>
@@ -44428,23 +44371,23 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8">
         <v>2017</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>111</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H34" s="8">
         <v>320</v>
@@ -44453,13 +44396,13 @@
         <v>92</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M34" s="7">
         <v>0.39</v>
@@ -44475,38 +44418,38 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="52">
         <v>2014</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F35" s="64" t="s">
         <v>194</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H35" s="52">
         <v>827</v>
       </c>
       <c r="I35" s="64" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K35" s="70" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M35" s="64">
         <v>0.04</v>
@@ -44531,10 +44474,10 @@
       <c r="I36" s="46"/>
       <c r="J36" s="46"/>
       <c r="K36" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M36" s="23">
         <v>-0.44</v>
@@ -44547,38 +44490,38 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1">
       <c r="A37" s="64" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C37" s="64"/>
       <c r="D37" s="52">
         <v>2016</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H37" s="52">
         <v>132</v>
       </c>
       <c r="I37" s="70" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J37" s="64" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K37" s="64" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M37" s="70">
         <v>0.02</v>

--- a/data/Coding - Norms Paper.xlsx
+++ b/data/Coding - Norms Paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\norms meta-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C113FEF-2201-43C1-B840-689411E53E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3455AA2-422B-4E01-A1F3-783C5EF650FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SN Only" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>I think this is only a moral norm and nothing else?
 	-Jenna Wyatt</t>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="581">
   <si>
     <t>Folder</t>
   </si>
@@ -1566,9 +1567,6 @@
   </si>
   <si>
     <t>Turn off table lamp</t>
-  </si>
-  <si>
-    <t>Why Do Cattle Ranchers Participate in Conservation Easement Agreements? Key Motivators in Decision Making</t>
   </si>
   <si>
     <t>Brain et al</t>
@@ -1773,6 +1771,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ü</t>
     </r>
@@ -1780,6 +1779,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>b</t>
     </r>
@@ -1787,6 +1787,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
@@ -1794,6 +1795,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">er and Kaiser </t>
     </r>
@@ -1806,6 +1808,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>*</t>
     </r>
@@ -1824,6 +1827,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ogistic</t>
     </r>
@@ -1831,6 +1835,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> regression</t>
     </r>
@@ -1855,13 +1860,16 @@
   </si>
   <si>
     <t>Effect Size</t>
+  </si>
+  <si>
+    <t>Why Do Cattle Ranchers Participate in Conservation Easement Agreements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1872,41 +1880,49 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1917,23 +1933,28 @@
       <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1944,14 +1965,47 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF231F20"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2012,6 +2066,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2050,7 +2116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2222,9 +2288,19 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2510,9 +2586,9 @@
   </sheetPr>
   <dimension ref="A1:AI899"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2576,10 +2652,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -2614,7 +2690,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>26</v>
@@ -2678,7 +2754,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H3" s="13">
         <v>382</v>
@@ -2690,7 +2766,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L3" s="13">
         <v>0.03</v>
@@ -2739,7 +2815,7 @@
         <v>33</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L4" s="13">
         <v>-0.01</v>
@@ -3433,7 +3509,7 @@
         <v>248</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>249</v>
@@ -3520,7 +3596,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -3569,7 +3645,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -3685,8 +3761,8 @@
       <c r="L21" s="13">
         <v>0.12</v>
       </c>
-      <c r="M21" s="117" t="s">
-        <v>578</v>
+      <c r="M21" s="120" t="s">
+        <v>577</v>
       </c>
       <c r="N21" s="42"/>
       <c r="O21" s="87"/>
@@ -5350,7 +5426,7 @@
         <v>138</v>
       </c>
       <c r="I51" s="115" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J51" s="35" t="s">
         <v>418</v>
@@ -5369,7 +5445,7 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -5416,7 +5492,7 @@
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
@@ -5463,7 +5539,7 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
@@ -5519,8 +5595,8 @@
       <c r="L54" s="35">
         <v>0.18</v>
       </c>
-      <c r="M54" s="19" t="s">
-        <v>578</v>
+      <c r="M54" s="121" t="s">
+        <v>577</v>
       </c>
       <c r="N54" s="62"/>
       <c r="O54" s="93"/>
@@ -6601,21 +6677,21 @@
       <c r="A73" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>503</v>
+      <c r="B73" s="19" t="s">
+        <v>580</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="25">
         <v>2014</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>37</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H73" s="25">
         <v>487</v>
@@ -6624,10 +6700,10 @@
         <v>174</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K73" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L73" s="25">
         <v>0.25</v>
@@ -6665,14 +6741,14 @@
         <v>105</v>
       </c>
       <c r="B74" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C74" s="74"/>
       <c r="D74" s="73">
         <v>2016</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F74" s="73" t="s">
         <v>109</v>
@@ -6687,7 +6763,7 @@
         <v>90</v>
       </c>
       <c r="J74" s="73" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K74" s="73" t="s">
         <v>89</v>
@@ -6728,32 +6804,32 @@
         <v>105</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C75" s="77"/>
       <c r="D75" s="76">
         <v>2018</v>
       </c>
       <c r="E75" s="78" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F75" s="76" t="s">
         <v>37</v>
       </c>
       <c r="G75" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H75" s="76">
         <v>437</v>
       </c>
       <c r="I75" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J75" s="76" t="s">
         <v>291</v>
       </c>
       <c r="K75" s="76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L75" s="76">
         <v>-0.01</v>
@@ -6793,32 +6869,32 @@
         <v>105</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="25">
         <v>2012</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>37</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H76" s="25">
         <v>1634</v>
       </c>
       <c r="I76" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="J76" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="J76" s="25" t="s">
-        <v>519</v>
-      </c>
       <c r="K76" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L76" s="25">
         <v>0.18</v>
@@ -6854,20 +6930,20 @@
         <v>105</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="25">
         <v>2004</v>
       </c>
       <c r="E77" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H77" s="25">
         <v>230</v>
@@ -6876,21 +6952,23 @@
         <v>90</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L77" s="25">
         <v>0.16</v>
       </c>
-      <c r="M77" s="38"/>
+      <c r="M77" s="122" t="s">
+        <v>29</v>
+      </c>
       <c r="N77" s="38"/>
       <c r="O77" s="88"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="25"/>
       <c r="R77" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
@@ -6915,32 +6993,32 @@
         <v>105</v>
       </c>
       <c r="B78" s="73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C78" s="74"/>
       <c r="D78" s="73">
         <v>2006</v>
       </c>
       <c r="E78" s="65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>109</v>
       </c>
       <c r="G78" s="73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H78" s="73">
         <v>130</v>
       </c>
       <c r="I78" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="J78" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="J78" s="73" t="s">
+      <c r="K78" s="73" t="s">
         <v>528</v>
-      </c>
-      <c r="K78" s="73" t="s">
-        <v>529</v>
       </c>
       <c r="L78" s="73">
         <v>0.14000000000000001</v>
@@ -6979,19 +7057,19 @@
       <c r="E79" s="65"/>
       <c r="F79" s="73"/>
       <c r="G79" s="73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H79" s="73">
         <v>193</v>
       </c>
       <c r="I79" s="73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J79" s="73" t="s">
+        <v>529</v>
+      </c>
+      <c r="K79" s="73" t="s">
         <v>530</v>
-      </c>
-      <c r="K79" s="73" t="s">
-        <v>531</v>
       </c>
       <c r="L79" s="25">
         <v>0.15</v>
@@ -7027,20 +7105,20 @@
         <v>105</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="25">
         <v>2004</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G80" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H80" s="25">
         <v>246</v>
@@ -7049,10 +7127,10 @@
         <v>73</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L80" s="25">
         <v>0.03</v>
@@ -7088,32 +7166,32 @@
         <v>105</v>
       </c>
       <c r="B81" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C81" s="81"/>
       <c r="D81" s="25">
         <v>2011</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>109</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H81" s="25">
         <v>79</v>
       </c>
       <c r="I81" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="J81" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="J81" s="25" t="s">
-        <v>540</v>
-      </c>
       <c r="K81" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L81" s="25">
         <v>0.22</v>
@@ -7149,14 +7227,14 @@
         <v>105</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="25">
         <v>2012</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>109</v>
@@ -7171,7 +7249,7 @@
         <v>90</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K82" s="25" t="s">
         <v>89</v>
@@ -7210,14 +7288,14 @@
         <v>105</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="25">
         <v>2015</v>
       </c>
       <c r="E83" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>109</v>
@@ -7232,7 +7310,7 @@
         <v>90</v>
       </c>
       <c r="J83" s="25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K83" s="25" t="s">
         <v>205</v>
@@ -7271,32 +7349,32 @@
         <v>105</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="25">
         <v>2008</v>
       </c>
       <c r="E84" s="65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F84" s="64" t="s">
         <v>192</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H84" s="25">
         <v>180</v>
       </c>
       <c r="I84" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="J84" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="J84" s="25" t="s">
-        <v>551</v>
-      </c>
       <c r="K84" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L84" s="25">
         <v>0.08</v>
@@ -7332,20 +7410,20 @@
         <v>105</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="25">
         <v>2009</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>62</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H85" s="23">
         <v>523</v>
@@ -7354,10 +7432,10 @@
         <v>43</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K85" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L85" s="25">
         <v>4.75</v>
@@ -37431,7 +37509,7 @@
   </sheetPr>
   <dimension ref="A1:AG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I61" workbookViewId="0">
+    <sheetView topLeftCell="D62" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -37481,10 +37559,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -37492,17 +37570,17 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="96" t="s">
-        <v>579</v>
+      <c r="P1" s="126" t="s">
+        <v>578</v>
       </c>
       <c r="Q1" s="96" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -37552,7 +37630,7 @@
         <v>45</v>
       </c>
       <c r="L2" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M2" s="100">
         <v>0.16</v>
@@ -37597,7 +37675,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M3" s="107">
         <v>0.23</v>
@@ -37658,7 +37736,7 @@
         <v>55</v>
       </c>
       <c r="L4" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M4" s="100">
         <v>0.4</v>
@@ -37719,7 +37797,7 @@
         <v>84</v>
       </c>
       <c r="L5" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M5" s="100">
         <v>0.12</v>
@@ -37764,7 +37842,7 @@
         <v>86</v>
       </c>
       <c r="L6" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M6" s="100">
         <v>0.18</v>
@@ -37825,7 +37903,7 @@
         <v>84</v>
       </c>
       <c r="L7" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M7" s="100">
         <v>0.46</v>
@@ -37870,7 +37948,7 @@
         <v>86</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M8" s="100">
         <v>0.52</v>
@@ -37931,7 +38009,7 @@
         <v>84</v>
       </c>
       <c r="L9" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M9" s="100">
         <v>0.37</v>
@@ -37976,7 +38054,7 @@
         <v>86</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M10" s="100">
         <v>0.09</v>
@@ -38037,7 +38115,7 @@
         <v>118</v>
       </c>
       <c r="L11" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M11" s="100">
         <v>0.26</v>
@@ -38082,7 +38160,7 @@
         <v>119</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M12" s="100">
         <v>0.26</v>
@@ -38143,7 +38221,7 @@
         <v>125</v>
       </c>
       <c r="L13" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M13" s="100">
         <v>0.15</v>
@@ -38204,7 +38282,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M14" s="100">
         <v>0.21</v>
@@ -38263,7 +38341,7 @@
         <v>62</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M15" s="100">
         <v>0.3</v>
@@ -38324,7 +38402,7 @@
         <v>62</v>
       </c>
       <c r="L16" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M16" s="100">
         <v>0.28999999999999998</v>
@@ -38385,7 +38463,7 @@
         <v>82</v>
       </c>
       <c r="L17" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M17" s="100">
         <v>0.05</v>
@@ -38446,9 +38524,9 @@
         <v>82</v>
       </c>
       <c r="L18" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="M18" s="100"/>
+        <v>559</v>
+      </c>
+      <c r="M18" s="119"/>
       <c r="N18" s="103" t="s">
         <v>34</v>
       </c>
@@ -38507,7 +38585,7 @@
         <v>147</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M19" s="100">
         <v>0.05</v>
@@ -38553,7 +38631,7 @@
         <v>148</v>
       </c>
       <c r="L20" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M20" s="94">
         <v>0.02</v>
@@ -38585,7 +38663,7 @@
         <v>149</v>
       </c>
       <c r="L21" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M21" s="94">
         <v>0.15</v>
@@ -38617,7 +38695,7 @@
         <v>150</v>
       </c>
       <c r="L22" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M22" s="94">
         <v>0.04</v>
@@ -38649,7 +38727,7 @@
         <v>151</v>
       </c>
       <c r="L23" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M23" s="94">
         <v>0.01</v>
@@ -38696,7 +38774,7 @@
         <v>154</v>
       </c>
       <c r="L24" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M24" s="100">
         <v>0</v>
@@ -38763,7 +38841,7 @@
         <v>163</v>
       </c>
       <c r="L25" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M25" s="100">
         <v>0.22</v>
@@ -38824,9 +38902,9 @@
         <v>89</v>
       </c>
       <c r="L26" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="M26" s="100"/>
+        <v>559</v>
+      </c>
+      <c r="M26" s="119"/>
       <c r="N26" s="100" t="s">
         <v>34</v>
       </c>
@@ -38883,7 +38961,7 @@
         <v>89</v>
       </c>
       <c r="L27" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M27" s="100">
         <v>0.55000000000000004</v>
@@ -38946,7 +39024,7 @@
         <v>176</v>
       </c>
       <c r="L28" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M28" s="94">
         <v>0.05</v>
@@ -38992,9 +39070,9 @@
         <v>181</v>
       </c>
       <c r="L29" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="M29" s="94"/>
+        <v>559</v>
+      </c>
+      <c r="M29" s="118"/>
       <c r="N29" s="94" t="s">
         <v>34</v>
       </c>
@@ -39015,7 +39093,7 @@
         <v>2006</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F30" s="94" t="s">
         <v>62</v>
@@ -39036,7 +39114,7 @@
         <v>184</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M30" s="94">
         <v>0.01</v>
@@ -39081,7 +39159,7 @@
       </c>
       <c r="K31" s="93"/>
       <c r="L31" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M31" s="98">
         <v>0.01</v>
@@ -39143,13 +39221,13 @@
         <v>195</v>
       </c>
       <c r="L32" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M32" s="94">
         <v>0.14000000000000001</v>
       </c>
       <c r="N32" s="103" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O32" s="94"/>
       <c r="P32" s="94"/>
@@ -39190,7 +39268,7 @@
         <v>199</v>
       </c>
       <c r="L33" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M33" s="93">
         <v>3.0000000000000001E-3</v>
@@ -39255,7 +39333,7 @@
         <v>205</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M34" s="88">
         <v>0.28999999999999998</v>
@@ -39263,9 +39341,7 @@
       <c r="N34" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="O34" s="88">
-        <v>0.01</v>
-      </c>
+      <c r="O34" s="88"/>
       <c r="P34" s="88"/>
       <c r="Q34" s="88"/>
       <c r="R34" s="88"/>
@@ -39318,7 +39394,7 @@
         <v>208</v>
       </c>
       <c r="L35" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M35" s="91">
         <v>0.1</v>
@@ -39381,7 +39457,7 @@
         <v>218</v>
       </c>
       <c r="L36" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M36" s="98">
         <v>0.13</v>
@@ -39442,7 +39518,7 @@
         <v>220</v>
       </c>
       <c r="L37" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M37" s="93">
         <v>0.24</v>
@@ -39505,7 +39581,7 @@
         <v>362</v>
       </c>
       <c r="L38" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M38" s="98">
         <v>0.03</v>
@@ -39555,7 +39631,7 @@
         <v>365</v>
       </c>
       <c r="L39" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M39" s="94">
         <v>0.05</v>
@@ -39603,7 +39679,7 @@
         <v>45</v>
       </c>
       <c r="L40" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M40" s="100">
         <v>-0.05</v>
@@ -39648,7 +39724,7 @@
         <v>50</v>
       </c>
       <c r="L41" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M41" s="100">
         <v>-0.14000000000000001</v>
@@ -39709,7 +39785,7 @@
         <v>55</v>
       </c>
       <c r="L42" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M42" s="100">
         <v>0.06</v>
@@ -39755,7 +39831,7 @@
         <v>84</v>
       </c>
       <c r="L43" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M43" s="100">
         <v>0.3</v>
@@ -39800,7 +39876,7 @@
         <v>86</v>
       </c>
       <c r="L44" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M44" s="100">
         <v>0.32</v>
@@ -39861,7 +39937,7 @@
         <v>84</v>
       </c>
       <c r="L45" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M45" s="100">
         <v>-0.02</v>
@@ -39906,7 +39982,7 @@
         <v>86</v>
       </c>
       <c r="L46" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M46" s="100">
         <v>0.1</v>
@@ -39952,7 +40028,7 @@
         <v>84</v>
       </c>
       <c r="L47" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M47" s="100">
         <v>0.25</v>
@@ -39982,7 +40058,7 @@
         <v>86</v>
       </c>
       <c r="L48" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M48" s="100">
         <v>0.38</v>
@@ -40028,7 +40104,7 @@
         <v>118</v>
       </c>
       <c r="L49" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M49" s="100">
         <v>0.2</v>
@@ -40058,7 +40134,7 @@
         <v>119</v>
       </c>
       <c r="L50" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M50" s="100">
         <v>0.25</v>
@@ -40104,7 +40180,7 @@
         <v>125</v>
       </c>
       <c r="L51" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M51" s="100">
         <v>0.35</v>
@@ -40150,7 +40226,7 @@
         <v>62</v>
       </c>
       <c r="L52" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M52" s="100">
         <v>0.52</v>
@@ -40192,7 +40268,7 @@
         <v>62</v>
       </c>
       <c r="L53" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M53" s="100">
         <v>0.34</v>
@@ -40238,7 +40314,7 @@
         <v>62</v>
       </c>
       <c r="L54" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M54" s="100">
         <v>0.27</v>
@@ -40284,7 +40360,7 @@
         <v>82</v>
       </c>
       <c r="L55" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M55" s="100">
         <v>0.45</v>
@@ -40330,7 +40406,7 @@
         <v>82</v>
       </c>
       <c r="L56" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M56" s="100">
         <v>0.27</v>
@@ -40376,7 +40452,7 @@
         <v>147</v>
       </c>
       <c r="L57" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M57" s="100">
         <v>0.32</v>
@@ -40407,7 +40483,7 @@
         <v>148</v>
       </c>
       <c r="L58" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M58" s="94">
         <v>0.43</v>
@@ -40438,7 +40514,7 @@
         <v>149</v>
       </c>
       <c r="L59" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M59" s="94">
         <v>0.16</v>
@@ -40469,7 +40545,7 @@
         <v>150</v>
       </c>
       <c r="L60" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M60" s="94">
         <v>0.39</v>
@@ -40500,7 +40576,7 @@
         <v>151</v>
       </c>
       <c r="L61" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M61" s="94">
         <v>0.23</v>
@@ -40546,7 +40622,7 @@
         <v>154</v>
       </c>
       <c r="L62" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M62" s="100">
         <v>0.13</v>
@@ -40598,7 +40674,7 @@
         <v>163</v>
       </c>
       <c r="L63" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M63" s="100">
         <v>0.2</v>
@@ -40607,7 +40683,7 @@
         <v>58</v>
       </c>
       <c r="O63" s="100"/>
-      <c r="P63" s="102">
+      <c r="P63" s="117">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q63" s="100"/>
@@ -40646,10 +40722,14 @@
         <v>89</v>
       </c>
       <c r="L64" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="M64" s="100"/>
-      <c r="N64" s="100"/>
+        <v>562</v>
+      </c>
+      <c r="M64" s="114">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N64" s="123" t="s">
+        <v>29</v>
+      </c>
       <c r="O64" s="100"/>
       <c r="P64" s="102"/>
       <c r="Q64" s="100"/>
@@ -40688,7 +40768,7 @@
         <v>89</v>
       </c>
       <c r="L65" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M65" s="100">
         <v>0.34</v>
@@ -40736,7 +40816,7 @@
         <v>176</v>
       </c>
       <c r="L66" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M66" s="94">
         <v>0.54</v>
@@ -40781,7 +40861,7 @@
         <v>181</v>
       </c>
       <c r="L67" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M67" s="94">
         <v>0.26</v>
@@ -40826,7 +40906,7 @@
         <v>184</v>
       </c>
       <c r="L68" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M68" s="94">
         <v>0.28000000000000003</v>
@@ -40870,7 +40950,7 @@
       </c>
       <c r="K69" s="93"/>
       <c r="L69" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M69" s="93">
         <v>0.54</v>
@@ -40917,13 +40997,13 @@
         <v>195</v>
       </c>
       <c r="L70" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M70" s="94">
         <v>0.1</v>
       </c>
-      <c r="N70" s="103" t="s">
-        <v>49</v>
+      <c r="N70" s="124" t="s">
+        <v>29</v>
       </c>
       <c r="O70" s="94">
         <v>0.02</v>
@@ -40965,7 +41045,7 @@
         <v>199</v>
       </c>
       <c r="L71" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M71" s="93">
         <v>0.19</v>
@@ -41013,13 +41093,13 @@
         <v>205</v>
       </c>
       <c r="L72" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M72" s="88">
         <v>0.24</v>
       </c>
-      <c r="N72" s="88" t="s">
-        <v>49</v>
+      <c r="N72" s="124" t="s">
+        <v>29</v>
       </c>
       <c r="O72" s="88">
         <v>0.01</v>
@@ -41061,7 +41141,7 @@
         <v>208</v>
       </c>
       <c r="L73" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M73" s="93">
         <v>0.6</v>
@@ -41109,7 +41189,7 @@
         <v>218</v>
       </c>
       <c r="L74" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M74" s="93">
         <v>0.23</v>
@@ -41155,7 +41235,7 @@
         <v>220</v>
       </c>
       <c r="L75" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M75" s="93">
         <v>0.59</v>
@@ -41203,7 +41283,7 @@
         <v>362</v>
       </c>
       <c r="L76" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M76" s="91">
         <v>0.34</v>
@@ -41236,7 +41316,7 @@
         <v>365</v>
       </c>
       <c r="L77" s="100" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M77" s="94">
         <v>0.23</v>
@@ -41268,8 +41348,8 @@
   </sheetPr>
   <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -41314,10 +41394,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>560</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -41386,7 +41466,7 @@
         <v>46</v>
       </c>
       <c r="L2" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M2" s="100">
         <v>0.31</v>
@@ -41454,9 +41534,11 @@
         <v>46</v>
       </c>
       <c r="L3" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="M3" s="114"/>
+        <v>559</v>
+      </c>
+      <c r="M3" s="119">
+        <v>0</v>
+      </c>
       <c r="N3" s="114" t="s">
         <v>211</v>
       </c>
@@ -41518,7 +41600,7 @@
         <v>63</v>
       </c>
       <c r="L4" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M4" s="100">
         <v>0.16</v>
@@ -41530,7 +41612,7 @@
       <c r="P4" s="113"/>
       <c r="Q4" s="113"/>
       <c r="R4" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -41570,7 +41652,7 @@
         <v>67</v>
       </c>
       <c r="L5" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M5" s="100">
         <v>0.21</v>
@@ -41636,7 +41718,7 @@
         <v>75</v>
       </c>
       <c r="L6" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M6" s="100">
         <v>0.11</v>
@@ -41698,10 +41780,10 @@
         <v>28</v>
       </c>
       <c r="K7" s="100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L7" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M7" s="100">
         <v>0.03</v>
@@ -41741,7 +41823,7 @@
       <c r="D8" s="85"/>
       <c r="E8" s="92"/>
       <c r="F8" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G8" s="94"/>
       <c r="H8" s="85"/>
@@ -41751,7 +41833,7 @@
         <v>85</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M8" s="94">
         <v>0.03</v>
@@ -41800,7 +41882,7 @@
         <v>89</v>
       </c>
       <c r="L9" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M9" s="100">
         <v>0.13</v>
@@ -41864,7 +41946,7 @@
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M10" s="100">
         <v>-0.01</v>
@@ -41932,7 +42014,7 @@
         <v>104</v>
       </c>
       <c r="L11" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M11" s="94">
         <v>0.06</v>
@@ -41971,7 +42053,7 @@
         <v>104</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M12" s="94">
         <v>0.28000000000000003</v>
@@ -42020,7 +42102,7 @@
         <v>110</v>
       </c>
       <c r="L13" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M13" s="88">
         <v>0.08</v>
@@ -42086,7 +42168,7 @@
         <v>46</v>
       </c>
       <c r="L14" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M14" s="100">
         <v>0.53</v>
@@ -42133,7 +42215,7 @@
         <v>46</v>
       </c>
       <c r="L15" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M15" s="100">
         <v>0.32</v>
@@ -42180,7 +42262,7 @@
         <v>63</v>
       </c>
       <c r="L16" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M16" s="100">
         <v>0.3</v>
@@ -42209,7 +42291,7 @@
         <v>67</v>
       </c>
       <c r="L17" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M17" s="100">
         <v>0.37</v>
@@ -42254,7 +42336,7 @@
         <v>75</v>
       </c>
       <c r="L18" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M18" s="100">
         <v>0.01</v>
@@ -42320,7 +42402,7 @@
         <v>79</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M19" s="100">
         <v>7.0000000000000007E-2</v>
@@ -42339,7 +42421,7 @@
       <c r="D20" s="85"/>
       <c r="E20" s="92"/>
       <c r="F20" s="103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G20" s="94"/>
       <c r="H20" s="85"/>
@@ -42349,7 +42431,7 @@
         <v>85</v>
       </c>
       <c r="L20" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M20" s="94">
         <v>0.2</v>
@@ -42394,7 +42476,7 @@
         <v>89</v>
       </c>
       <c r="L21" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M21" s="100">
         <v>0.19</v>
@@ -42437,7 +42519,7 @@
       </c>
       <c r="K22" s="100"/>
       <c r="L22" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M22" s="100">
         <v>0.14000000000000001</v>
@@ -42484,7 +42566,7 @@
         <v>104</v>
       </c>
       <c r="L23" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M23" s="94">
         <v>0.33</v>
@@ -42519,7 +42601,7 @@
         <v>104</v>
       </c>
       <c r="L24" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M24" s="94">
         <v>0.37</v>
@@ -42564,7 +42646,7 @@
         <v>110</v>
       </c>
       <c r="L25" s="100" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M25" s="88">
         <v>0.15</v>
@@ -42616,6 +42698,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -42631,8 +42714,8 @@
   </sheetPr>
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -42677,10 +42760,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>579</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -42688,17 +42771,17 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>579</v>
+      <c r="P1" s="125" t="s">
+        <v>578</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -42746,7 +42829,7 @@
         <v>314</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M2" s="6">
         <v>0.04</v>
@@ -42807,7 +42890,7 @@
         <v>333</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M3" s="6">
         <v>0.05</v>
@@ -42851,7 +42934,7 @@
         <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M4" s="6">
         <v>0.12</v>
@@ -42911,7 +42994,7 @@
         <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M5" s="6">
         <v>0.46</v>
@@ -42971,7 +43054,7 @@
         <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M6" s="6">
         <v>0.03</v>
@@ -43017,7 +43100,7 @@
         <v>366</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M7" s="6">
         <v>-0.05</v>
@@ -43077,7 +43160,7 @@
         <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M8" s="6">
         <v>0.02</v>
@@ -43126,7 +43209,7 @@
         <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M9" s="23">
         <v>0.05</v>
@@ -43185,7 +43268,7 @@
         <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M10" s="6">
         <v>0.02</v>
@@ -43246,7 +43329,7 @@
         <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M11" s="40">
         <v>0.18</v>
@@ -43281,7 +43364,7 @@
         <v>382</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M12" s="23">
         <v>0.4</v>
@@ -43327,7 +43410,7 @@
         <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M13" s="30">
         <v>0.14000000000000001</v>
@@ -43386,7 +43469,7 @@
         <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M14" s="7">
         <v>0.6</v>
@@ -43434,7 +43517,7 @@
         <v>333</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M15" s="7">
         <v>0.33</v>
@@ -43465,7 +43548,7 @@
         <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>0.22</v>
@@ -43512,7 +43595,7 @@
         <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>0.08</v>
@@ -43556,7 +43639,7 @@
         <v>354</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M18" s="7">
         <v>0.13</v>
@@ -43589,7 +43672,7 @@
         <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>0.18</v>
@@ -43636,7 +43719,7 @@
         <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>0.2</v>
@@ -43670,7 +43753,7 @@
         <v>199</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M21" s="23">
         <v>0.18</v>
@@ -43714,7 +43797,7 @@
         <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>0.11</v>
@@ -43761,7 +43844,7 @@
         <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M23" s="64">
         <v>-0.1</v>
@@ -43789,7 +43872,7 @@
         <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M24" s="23">
         <v>2.84</v>
@@ -43833,7 +43916,7 @@
         <v>389</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M25" s="70">
         <v>0.46</v>
@@ -43877,7 +43960,7 @@
         <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>0.14000000000000001</v>
@@ -43924,7 +44007,7 @@
         <v>333</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M27" s="7">
         <v>0.1</v>
@@ -43955,7 +44038,7 @@
         <v>337</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>0.33</v>
@@ -44002,7 +44085,7 @@
         <v>342</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>0.37</v>
@@ -44046,7 +44129,7 @@
         <v>354</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M30" s="7">
         <v>0.08</v>
@@ -44079,7 +44162,7 @@
         <v>366</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M31" s="7">
         <v>0.13</v>
@@ -44126,7 +44209,7 @@
         <v>89</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M32" s="7">
         <v>0.26</v>
@@ -44160,7 +44243,7 @@
         <v>199</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M33" s="23">
         <v>0.15</v>
@@ -44204,7 +44287,7 @@
         <v>374</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M34" s="7">
         <v>0.39</v>
@@ -44251,7 +44334,7 @@
         <v>381</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M35" s="64">
         <v>0.04</v>
@@ -44279,7 +44362,7 @@
         <v>382</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M36" s="23">
         <v>-0.44</v>
@@ -44323,7 +44406,7 @@
         <v>389</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M37" s="70">
         <v>0.02</v>
